--- a/Assets/Resources/RFScenarios/Nicosia/AllCyprusScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Nicosia/AllCyprusScenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\Projects\INSPEC2T\ResourceForce\Assets\Resources\RFScenarios\Nicosia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\Projects\INSPEC2T\ResourceForce\RF_Game\Assets\Resources\RFScenarios\Nicosia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12814"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1190,23 +1190,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.4609375" style="4"/>
-    <col min="2" max="2" width="14.4609375" style="16"/>
-    <col min="3" max="3" width="14.4609375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.23046875" style="16" customWidth="1"/>
-    <col min="5" max="6" width="14.4609375" style="16"/>
+    <col min="1" max="1" width="14.453125" style="4"/>
+    <col min="2" max="2" width="14.453125" style="16"/>
+    <col min="3" max="3" width="14.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" style="16" customWidth="1"/>
+    <col min="5" max="6" width="14.453125" style="16"/>
     <col min="7" max="7" width="16" style="16" customWidth="1"/>
-    <col min="8" max="10" width="14.4609375" style="16"/>
-    <col min="11" max="11" width="18.4609375" style="16" customWidth="1"/>
-    <col min="12" max="17" width="14.4609375" style="16"/>
-    <col min="18" max="16384" width="14.4609375" style="4"/>
+    <col min="8" max="10" width="14.453125" style="16"/>
+    <col min="11" max="11" width="18.453125" style="16" customWidth="1"/>
+    <col min="12" max="17" width="14.453125" style="16"/>
+    <col min="18" max="16384" width="14.453125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -1534,7 +1534,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="87">
+    <row r="7" spans="1:26" s="6" customFormat="1" ht="87.5">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2291,9 +2291,11 @@
       <c r="D19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16">
+        <v>5</v>
+      </c>
       <c r="F19" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="16">
         <v>-1</v>
@@ -2538,10 +2540,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="16">
         <v>-1</v>
@@ -2600,7 +2602,7 @@
         <v>52</v>
       </c>
       <c r="E24" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="16">
         <v>-1</v>
@@ -3764,7 +3766,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" s="6" customFormat="1" ht="24.9">
+    <row r="43" spans="1:26" s="6" customFormat="1" ht="37.5">
       <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
@@ -3826,7 +3828,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="44" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A44" s="10" t="s">
         <v>77</v>
       </c>
@@ -3888,7 +3890,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="45" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A45" s="10" t="s">
         <v>77</v>
       </c>
@@ -3950,7 +3952,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" s="8" customFormat="1" ht="87">
+    <row r="46" spans="1:26" s="8" customFormat="1" ht="87.5">
       <c r="A46" s="9" t="s">
         <v>87</v>
       </c>
@@ -4012,7 +4014,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" s="8" customFormat="1" ht="87">
+    <row r="47" spans="1:26" s="8" customFormat="1" ht="87.5">
       <c r="A47" s="9" t="s">
         <v>87</v>
       </c>
@@ -4074,7 +4076,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" s="8" customFormat="1" ht="62.15">
+    <row r="48" spans="1:26" s="8" customFormat="1" ht="62.5">
       <c r="A48" s="9" t="s">
         <v>87</v>
       </c>
@@ -4136,7 +4138,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" s="8" customFormat="1" ht="49.75">
+    <row r="49" spans="1:26" s="8" customFormat="1" ht="62.5">
       <c r="A49" s="9" t="s">
         <v>87</v>
       </c>
@@ -4198,7 +4200,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" s="8" customFormat="1" ht="74.599999999999994">
+    <row r="50" spans="1:26" s="8" customFormat="1" ht="75">
       <c r="A50" s="9" t="s">
         <v>87</v>
       </c>
@@ -4260,7 +4262,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" s="8" customFormat="1" ht="74.599999999999994">
+    <row r="51" spans="1:26" s="8" customFormat="1" ht="75">
       <c r="A51" s="9" t="s">
         <v>87</v>
       </c>
@@ -4322,7 +4324,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" s="8" customFormat="1" ht="49.75">
+    <row r="52" spans="1:26" s="8" customFormat="1" ht="50">
       <c r="A52" s="9" t="s">
         <v>87</v>
       </c>
@@ -4384,7 +4386,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" s="6" customFormat="1" ht="111.9">
+    <row r="53" spans="1:26" s="6" customFormat="1" ht="125">
       <c r="A53" s="10" t="s">
         <v>95</v>
       </c>
@@ -4446,7 +4448,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="54" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A54" s="10" t="s">
         <v>95</v>
       </c>
@@ -4508,7 +4510,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="55" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A55" s="10" t="s">
         <v>95</v>
       </c>
@@ -4570,7 +4572,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="56" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A56" s="10" t="s">
         <v>95</v>
       </c>
@@ -4632,7 +4634,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" s="6" customFormat="1" ht="49.75">
+    <row r="57" spans="1:26" s="6" customFormat="1" ht="50">
       <c r="A57" s="10" t="s">
         <v>95</v>
       </c>
@@ -4694,7 +4696,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" s="6" customFormat="1" ht="37.299999999999997">
+    <row r="58" spans="1:26" s="6" customFormat="1" ht="37.5">
       <c r="A58" s="10" t="s">
         <v>95</v>
       </c>
@@ -4756,7 +4758,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" s="6" customFormat="1" ht="49.75">
+    <row r="59" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A59" s="10" t="s">
         <v>95</v>
       </c>
@@ -4818,7 +4820,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" s="6" customFormat="1" ht="87">
+    <row r="60" spans="1:26" s="6" customFormat="1" ht="87.5">
       <c r="A60" s="10" t="s">
         <v>95</v>
       </c>
@@ -4880,7 +4882,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="61" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A61" s="10" t="s">
         <v>95</v>
       </c>
@@ -4942,7 +4944,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" s="6" customFormat="1" ht="37.299999999999997">
+    <row r="62" spans="1:26" s="6" customFormat="1" ht="37.5">
       <c r="A62" s="10" t="s">
         <v>95</v>
       </c>
@@ -5004,7 +5006,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" s="6" customFormat="1" ht="37.299999999999997">
+    <row r="63" spans="1:26" s="6" customFormat="1" ht="37.5">
       <c r="A63" s="10" t="s">
         <v>95</v>
       </c>
@@ -5066,7 +5068,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" s="6" customFormat="1" ht="49.75">
+    <row r="64" spans="1:26" s="6" customFormat="1" ht="50">
       <c r="A64" s="10" t="s">
         <v>95</v>
       </c>
@@ -5128,7 +5130,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" s="8" customFormat="1" ht="99.45">
+    <row r="65" spans="1:26" s="8" customFormat="1" ht="100">
       <c r="A65" s="9" t="s">
         <v>109</v>
       </c>
@@ -5190,7 +5192,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" s="8" customFormat="1" ht="24.9">
+    <row r="66" spans="1:26" s="8" customFormat="1" ht="25">
       <c r="A66" s="9" t="s">
         <v>109</v>
       </c>
@@ -5252,7 +5254,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" s="8" customFormat="1" ht="62.15">
+    <row r="67" spans="1:26" s="8" customFormat="1" ht="62.5">
       <c r="A67" s="9" t="s">
         <v>109</v>
       </c>
@@ -5314,7 +5316,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" s="8" customFormat="1" ht="74.599999999999994">
+    <row r="68" spans="1:26" s="8" customFormat="1" ht="75">
       <c r="A68" s="9" t="s">
         <v>109</v>
       </c>
@@ -5376,7 +5378,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" s="8" customFormat="1" ht="37.299999999999997">
+    <row r="69" spans="1:26" s="8" customFormat="1" ht="37.5">
       <c r="A69" s="9" t="s">
         <v>109</v>
       </c>
@@ -5438,7 +5440,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" s="8" customFormat="1" ht="49.75">
+    <row r="70" spans="1:26" s="8" customFormat="1" ht="50">
       <c r="A70" s="9" t="s">
         <v>109</v>
       </c>
@@ -5500,7 +5502,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" s="8" customFormat="1" ht="49.75">
+    <row r="71" spans="1:26" s="8" customFormat="1" ht="50">
       <c r="A71" s="9" t="s">
         <v>109</v>
       </c>
@@ -5562,7 +5564,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" s="8" customFormat="1" ht="24.9">
+    <row r="72" spans="1:26" s="8" customFormat="1" ht="25">
       <c r="A72" s="9" t="s">
         <v>109</v>
       </c>
@@ -5624,7 +5626,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" s="8" customFormat="1" ht="37.299999999999997">
+    <row r="73" spans="1:26" s="8" customFormat="1" ht="37.5">
       <c r="A73" s="9" t="s">
         <v>109</v>
       </c>
@@ -5686,7 +5688,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" s="6" customFormat="1" ht="49.75">
+    <row r="74" spans="1:26" s="6" customFormat="1" ht="50">
       <c r="A74" s="10" t="s">
         <v>120</v>
       </c>
@@ -5748,7 +5750,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="75" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A75" s="10" t="s">
         <v>120</v>
       </c>
@@ -5810,7 +5812,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="76" spans="1:26" s="6" customFormat="1" ht="62.5">
       <c r="A76" s="10" t="s">
         <v>120</v>
       </c>
@@ -5872,7 +5874,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" s="6" customFormat="1" ht="62.15">
+    <row r="77" spans="1:26" s="6" customFormat="1" ht="75">
       <c r="A77" s="10" t="s">
         <v>120</v>
       </c>
@@ -5934,7 +5936,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.45">
+    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.5">
       <c r="A78" s="10" t="s">
         <v>120</v>
       </c>
@@ -5996,7 +5998,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" s="6" customFormat="1" ht="37.299999999999997">
+    <row r="79" spans="1:26" s="6" customFormat="1" ht="37.5">
       <c r="A79" s="10" t="s">
         <v>120</v>
       </c>
@@ -6058,7 +6060,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" s="6" customFormat="1" ht="37.299999999999997">
+    <row r="80" spans="1:26" s="6" customFormat="1" ht="37.5">
       <c r="A80" s="10" t="s">
         <v>120</v>
       </c>
@@ -6120,7 +6122,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" s="6" customFormat="1" ht="49.75">
+    <row r="81" spans="1:26" s="6" customFormat="1" ht="50">
       <c r="A81" s="10" t="s">
         <v>120</v>
       </c>
@@ -6182,7 +6184,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" s="6" customFormat="1" ht="12.45">
+    <row r="82" spans="1:26" s="6" customFormat="1" ht="12.5">
       <c r="A82" s="10" t="s">
         <v>120</v>
       </c>
@@ -6244,7 +6246,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" s="6" customFormat="1" ht="24.9">
+    <row r="83" spans="1:26" s="6" customFormat="1" ht="25">
       <c r="A83" s="10" t="s">
         <v>120</v>
       </c>
@@ -6306,7 +6308,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" s="6" customFormat="1" ht="12.45">
+    <row r="84" spans="1:26" s="6" customFormat="1" ht="12.5">
       <c r="A84" s="10" t="s">
         <v>120</v>
       </c>
@@ -6368,7 +6370,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" s="6" customFormat="1" ht="37.299999999999997">
+    <row r="85" spans="1:26" s="6" customFormat="1" ht="37.5">
       <c r="A85" s="10" t="s">
         <v>120</v>
       </c>
@@ -6430,7 +6432,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" s="15" customFormat="1" ht="62.15">
+    <row r="86" spans="1:26" s="15" customFormat="1" ht="62.5">
       <c r="A86" s="13" t="s">
         <v>131</v>
       </c>
@@ -6492,7 +6494,7 @@
       <c r="Y86" s="14"/>
       <c r="Z86" s="14"/>
     </row>
-    <row r="87" spans="1:26" s="15" customFormat="1" ht="49.75">
+    <row r="87" spans="1:26" s="15" customFormat="1" ht="50">
       <c r="A87" s="13" t="s">
         <v>131</v>
       </c>
@@ -6554,7 +6556,7 @@
       <c r="Y87" s="14"/>
       <c r="Z87" s="14"/>
     </row>
-    <row r="88" spans="1:26" s="15" customFormat="1" ht="99.45">
+    <row r="88" spans="1:26" s="15" customFormat="1" ht="100">
       <c r="A88" s="13" t="s">
         <v>131</v>
       </c>
@@ -6616,7 +6618,7 @@
       <c r="Y88" s="14"/>
       <c r="Z88" s="14"/>
     </row>
-    <row r="89" spans="1:26" s="15" customFormat="1" ht="49.75">
+    <row r="89" spans="1:26" s="15" customFormat="1" ht="50">
       <c r="A89" s="13" t="s">
         <v>131</v>
       </c>
@@ -6678,7 +6680,7 @@
       <c r="Y89" s="14"/>
       <c r="Z89" s="14"/>
     </row>
-    <row r="90" spans="1:26" s="15" customFormat="1" ht="74.599999999999994">
+    <row r="90" spans="1:26" s="15" customFormat="1" ht="87.5">
       <c r="A90" s="13" t="s">
         <v>131</v>
       </c>
@@ -6740,7 +6742,7 @@
       <c r="Y90" s="14"/>
       <c r="Z90" s="14"/>
     </row>
-    <row r="91" spans="1:26" s="15" customFormat="1" ht="24.9">
+    <row r="91" spans="1:26" s="15" customFormat="1" ht="25">
       <c r="A91" s="13" t="s">
         <v>131</v>
       </c>
@@ -6802,7 +6804,7 @@
       <c r="Y91" s="14"/>
       <c r="Z91" s="14"/>
     </row>
-    <row r="92" spans="1:26" s="15" customFormat="1" ht="24.9">
+    <row r="92" spans="1:26" s="15" customFormat="1" ht="25">
       <c r="A92" s="13" t="s">
         <v>131</v>
       </c>
@@ -6864,7 +6866,7 @@
       <c r="Y92" s="14"/>
       <c r="Z92" s="14"/>
     </row>
-    <row r="93" spans="1:26" ht="12.45">
+    <row r="93" spans="1:26" ht="12.5">
       <c r="A93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -6876,7 +6878,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="12.45">
+    <row r="94" spans="1:26" ht="12.5">
       <c r="A94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -6888,7 +6890,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="12.45">
+    <row r="95" spans="1:26" ht="12.5">
       <c r="A95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -6900,7 +6902,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="12.45">
+    <row r="96" spans="1:26" ht="12.5">
       <c r="A96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -6912,7 +6914,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="12.45">
+    <row r="97" spans="1:26" ht="12.5">
       <c r="A97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -6924,7 +6926,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="12.45">
+    <row r="98" spans="1:26" ht="12.5">
       <c r="A98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -6936,7 +6938,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="12.45">
+    <row r="99" spans="1:26" ht="12.5">
       <c r="A99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -6948,7 +6950,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="12.45">
+    <row r="100" spans="1:26" ht="12.5">
       <c r="A100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -6960,7 +6962,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="12.45">
+    <row r="101" spans="1:26" ht="12.5">
       <c r="A101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -6972,7 +6974,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="12.45">
+    <row r="102" spans="1:26" ht="12.5">
       <c r="A102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -6984,7 +6986,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="12.45">
+    <row r="103" spans="1:26" ht="12.5">
       <c r="A103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -6996,7 +6998,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="12.45">
+    <row r="104" spans="1:26" ht="12.5">
       <c r="A104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -7008,7 +7010,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="12.45">
+    <row r="105" spans="1:26" ht="12.5">
       <c r="A105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -7020,7 +7022,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="12.45">
+    <row r="106" spans="1:26" ht="12.5">
       <c r="A106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -7032,7 +7034,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="12.45">
+    <row r="107" spans="1:26" ht="12.5">
       <c r="A107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -7044,7 +7046,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="12.45">
+    <row r="108" spans="1:26" ht="12.5">
       <c r="A108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -7056,7 +7058,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="12.45">
+    <row r="109" spans="1:26" ht="12.5">
       <c r="A109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -7068,7 +7070,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="12.45">
+    <row r="110" spans="1:26" ht="12.5">
       <c r="A110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -7080,7 +7082,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="12.45">
+    <row r="111" spans="1:26" ht="12.5">
       <c r="A111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -7092,7 +7094,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="12.45">
+    <row r="112" spans="1:26" ht="12.5">
       <c r="A112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -7104,7 +7106,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="12.45">
+    <row r="113" spans="1:26" ht="12.5">
       <c r="A113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -7116,7 +7118,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="12.45">
+    <row r="114" spans="1:26" ht="12.5">
       <c r="A114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -7128,7 +7130,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="12.45">
+    <row r="115" spans="1:26" ht="12.5">
       <c r="A115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -7140,7 +7142,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="12.45">
+    <row r="116" spans="1:26" ht="12.5">
       <c r="A116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -7152,7 +7154,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="12.45">
+    <row r="117" spans="1:26" ht="12.5">
       <c r="A117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -7164,7 +7166,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="12.45">
+    <row r="118" spans="1:26" ht="12.5">
       <c r="A118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
@@ -7176,7 +7178,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="12.45">
+    <row r="119" spans="1:26" ht="12.5">
       <c r="A119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
@@ -7188,7 +7190,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="12.45">
+    <row r="120" spans="1:26" ht="12.5">
       <c r="A120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -7200,7 +7202,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="12.45">
+    <row r="121" spans="1:26" ht="12.5">
       <c r="A121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -7212,7 +7214,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="12.45">
+    <row r="122" spans="1:26" ht="12.5">
       <c r="A122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -7224,7 +7226,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="12.45">
+    <row r="123" spans="1:26" ht="12.5">
       <c r="A123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -7236,7 +7238,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="12.45">
+    <row r="124" spans="1:26" ht="12.5">
       <c r="A124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
@@ -7248,7 +7250,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="12.45">
+    <row r="125" spans="1:26" ht="12.5">
       <c r="A125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
@@ -7260,7 +7262,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="12.45">
+    <row r="126" spans="1:26" ht="12.5">
       <c r="A126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
@@ -7272,7 +7274,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="12.45">
+    <row r="127" spans="1:26" ht="12.5">
       <c r="A127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
@@ -7284,7 +7286,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="12.45">
+    <row r="128" spans="1:26" ht="12.5">
       <c r="A128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
@@ -7296,7 +7298,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="12.45">
+    <row r="129" spans="1:26" ht="12.5">
       <c r="A129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
@@ -7308,7 +7310,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="12.45">
+    <row r="130" spans="1:26" ht="12.5">
       <c r="A130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
@@ -7320,7 +7322,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="12.45">
+    <row r="131" spans="1:26" ht="12.5">
       <c r="A131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
@@ -7332,7 +7334,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="12.45">
+    <row r="132" spans="1:26" ht="12.5">
       <c r="A132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
@@ -7344,7 +7346,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="12.45">
+    <row r="133" spans="1:26" ht="12.5">
       <c r="A133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
@@ -7356,7 +7358,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="12.45">
+    <row r="134" spans="1:26" ht="12.5">
       <c r="A134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -7368,7 +7370,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="12.45">
+    <row r="135" spans="1:26" ht="12.5">
       <c r="A135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -7380,7 +7382,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="12.45">
+    <row r="136" spans="1:26" ht="12.5">
       <c r="A136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
@@ -7392,7 +7394,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="12.45">
+    <row r="137" spans="1:26" ht="12.5">
       <c r="A137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
@@ -7404,7 +7406,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="12.45">
+    <row r="138" spans="1:26" ht="12.5">
       <c r="A138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
@@ -7416,7 +7418,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="12.45">
+    <row r="139" spans="1:26" ht="12.5">
       <c r="A139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
@@ -7428,7 +7430,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="12.45">
+    <row r="140" spans="1:26" ht="12.5">
       <c r="A140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
@@ -7440,7 +7442,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="12.45">
+    <row r="141" spans="1:26" ht="12.5">
       <c r="A141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -7452,7 +7454,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="12.45">
+    <row r="142" spans="1:26" ht="12.5">
       <c r="A142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -7464,7 +7466,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="12.45">
+    <row r="143" spans="1:26" ht="12.5">
       <c r="A143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
@@ -7476,7 +7478,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="12.45">
+    <row r="144" spans="1:26" ht="12.5">
       <c r="A144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -7488,7 +7490,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="12.45">
+    <row r="145" spans="1:26" ht="12.5">
       <c r="A145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
@@ -7500,7 +7502,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="12.45">
+    <row r="146" spans="1:26" ht="12.5">
       <c r="A146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -7512,7 +7514,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="12.45">
+    <row r="147" spans="1:26" ht="12.5">
       <c r="A147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -7524,7 +7526,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="12.45">
+    <row r="148" spans="1:26" ht="12.5">
       <c r="A148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
@@ -7536,7 +7538,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="12.45">
+    <row r="149" spans="1:26" ht="12.5">
       <c r="A149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
@@ -7548,7 +7550,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="12.45">
+    <row r="150" spans="1:26" ht="12.5">
       <c r="A150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
@@ -7560,7 +7562,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="12.45">
+    <row r="151" spans="1:26" ht="12.5">
       <c r="A151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
@@ -7572,7 +7574,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="12.45">
+    <row r="152" spans="1:26" ht="12.5">
       <c r="A152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -7584,7 +7586,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="12.45">
+    <row r="153" spans="1:26" ht="12.5">
       <c r="A153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
@@ -7596,7 +7598,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="12.45">
+    <row r="154" spans="1:26" ht="12.5">
       <c r="A154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
@@ -7608,7 +7610,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="12.45">
+    <row r="155" spans="1:26" ht="12.5">
       <c r="A155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
@@ -7620,7 +7622,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="12.45">
+    <row r="156" spans="1:26" ht="12.5">
       <c r="A156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
@@ -7632,7 +7634,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="12.45">
+    <row r="157" spans="1:26" ht="12.5">
       <c r="A157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -7644,7 +7646,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="12.45">
+    <row r="158" spans="1:26" ht="12.5">
       <c r="A158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
@@ -7656,7 +7658,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="12.45">
+    <row r="159" spans="1:26" ht="12.5">
       <c r="A159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
@@ -7668,7 +7670,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="12.45">
+    <row r="160" spans="1:26" ht="12.5">
       <c r="A160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
@@ -7680,7 +7682,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="12.45">
+    <row r="161" spans="1:26" ht="12.5">
       <c r="A161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
@@ -7692,7 +7694,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="12.45">
+    <row r="162" spans="1:26" ht="12.5">
       <c r="A162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
@@ -7704,7 +7706,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="12.45">
+    <row r="163" spans="1:26" ht="12.5">
       <c r="A163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -7716,7 +7718,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="12.45">
+    <row r="164" spans="1:26" ht="12.5">
       <c r="A164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -7728,7 +7730,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="12.45">
+    <row r="165" spans="1:26" ht="12.5">
       <c r="A165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -7740,7 +7742,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="12.45">
+    <row r="166" spans="1:26" ht="12.5">
       <c r="A166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
@@ -7752,7 +7754,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="12.45">
+    <row r="167" spans="1:26" ht="12.5">
       <c r="A167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
@@ -7764,7 +7766,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="12.45">
+    <row r="168" spans="1:26" ht="12.5">
       <c r="A168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
@@ -7776,7 +7778,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="12.45">
+    <row r="169" spans="1:26" ht="12.5">
       <c r="A169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
@@ -7788,7 +7790,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="12.45">
+    <row r="170" spans="1:26" ht="12.5">
       <c r="A170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
@@ -7800,7 +7802,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="12.45">
+    <row r="171" spans="1:26" ht="12.5">
       <c r="A171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
@@ -7812,7 +7814,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="12.45">
+    <row r="172" spans="1:26" ht="12.5">
       <c r="A172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
@@ -7824,7 +7826,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="12.45">
+    <row r="173" spans="1:26" ht="12.5">
       <c r="A173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
@@ -7836,7 +7838,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="12.45">
+    <row r="174" spans="1:26" ht="12.5">
       <c r="A174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -7848,7 +7850,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="12.45">
+    <row r="175" spans="1:26" ht="12.5">
       <c r="A175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
@@ -7860,7 +7862,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="12.45">
+    <row r="176" spans="1:26" ht="12.5">
       <c r="A176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -7872,7 +7874,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="12.45">
+    <row r="177" spans="1:26" ht="12.5">
       <c r="A177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
@@ -7884,7 +7886,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="12.45">
+    <row r="178" spans="1:26" ht="12.5">
       <c r="A178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
@@ -7896,7 +7898,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="12.45">
+    <row r="179" spans="1:26" ht="12.5">
       <c r="A179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -7908,7 +7910,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="12.45">
+    <row r="180" spans="1:26" ht="12.5">
       <c r="A180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
@@ -7920,7 +7922,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="12.45">
+    <row r="181" spans="1:26" ht="12.5">
       <c r="A181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
@@ -7932,7 +7934,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="12.45">
+    <row r="182" spans="1:26" ht="12.5">
       <c r="A182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
@@ -7944,7 +7946,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="12.45">
+    <row r="183" spans="1:26" ht="12.5">
       <c r="A183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
@@ -7956,7 +7958,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="12.45">
+    <row r="184" spans="1:26" ht="12.5">
       <c r="A184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
@@ -7968,7 +7970,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="12.45">
+    <row r="185" spans="1:26" ht="12.5">
       <c r="A185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
@@ -7980,7 +7982,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="12.45">
+    <row r="186" spans="1:26" ht="12.5">
       <c r="A186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
@@ -7992,7 +7994,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="12.45">
+    <row r="187" spans="1:26" ht="12.5">
       <c r="A187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -8004,7 +8006,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="12.45">
+    <row r="188" spans="1:26" ht="12.5">
       <c r="A188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
@@ -8016,7 +8018,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="12.45">
+    <row r="189" spans="1:26" ht="12.5">
       <c r="A189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
@@ -8028,7 +8030,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="12.45">
+    <row r="190" spans="1:26" ht="12.5">
       <c r="A190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
@@ -8040,7 +8042,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="12.45">
+    <row r="191" spans="1:26" ht="12.5">
       <c r="A191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
@@ -8052,7 +8054,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="12.45">
+    <row r="192" spans="1:26" ht="12.5">
       <c r="A192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
@@ -8064,7 +8066,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="12.45">
+    <row r="193" spans="1:26" ht="12.5">
       <c r="A193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
@@ -8076,7 +8078,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="12.45">
+    <row r="194" spans="1:26" ht="12.5">
       <c r="A194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
@@ -8088,7 +8090,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="12.45">
+    <row r="195" spans="1:26" ht="12.5">
       <c r="A195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
@@ -8100,7 +8102,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="12.45">
+    <row r="196" spans="1:26" ht="12.5">
       <c r="A196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
@@ -8112,7 +8114,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="12.45">
+    <row r="197" spans="1:26" ht="12.5">
       <c r="A197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
@@ -8124,7 +8126,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="12.45">
+    <row r="198" spans="1:26" ht="12.5">
       <c r="A198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
@@ -8136,7 +8138,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="12.45">
+    <row r="199" spans="1:26" ht="12.5">
       <c r="A199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
@@ -8148,7 +8150,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="12.45">
+    <row r="200" spans="1:26" ht="12.5">
       <c r="A200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
@@ -8160,7 +8162,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="12.45">
+    <row r="201" spans="1:26" ht="12.5">
       <c r="A201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
@@ -8172,7 +8174,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="12.45">
+    <row r="202" spans="1:26" ht="12.5">
       <c r="A202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
@@ -8184,7 +8186,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="12.45">
+    <row r="203" spans="1:26" ht="12.5">
       <c r="A203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
@@ -8196,7 +8198,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="12.45">
+    <row r="204" spans="1:26" ht="12.5">
       <c r="A204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
@@ -8208,7 +8210,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="12.45">
+    <row r="205" spans="1:26" ht="12.5">
       <c r="A205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
@@ -8220,7 +8222,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="12.45">
+    <row r="206" spans="1:26" ht="12.5">
       <c r="A206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
@@ -8232,7 +8234,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="12.45">
+    <row r="207" spans="1:26" ht="12.5">
       <c r="A207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
@@ -8244,7 +8246,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="12.45">
+    <row r="208" spans="1:26" ht="12.5">
       <c r="A208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
@@ -8256,7 +8258,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="12.45">
+    <row r="209" spans="1:26" ht="12.5">
       <c r="A209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
@@ -8268,7 +8270,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="12.45">
+    <row r="210" spans="1:26" ht="12.5">
       <c r="A210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
@@ -8280,7 +8282,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="12.45">
+    <row r="211" spans="1:26" ht="12.5">
       <c r="A211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
@@ -8292,7 +8294,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="12.45">
+    <row r="212" spans="1:26" ht="12.5">
       <c r="A212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
@@ -8304,7 +8306,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="12.45">
+    <row r="213" spans="1:26" ht="12.5">
       <c r="A213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
@@ -8316,7 +8318,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="12.45">
+    <row r="214" spans="1:26" ht="12.5">
       <c r="A214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
@@ -8328,7 +8330,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="12.45">
+    <row r="215" spans="1:26" ht="12.5">
       <c r="A215" s="1"/>
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
@@ -8340,7 +8342,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="12.45">
+    <row r="216" spans="1:26" ht="12.5">
       <c r="A216" s="1"/>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
@@ -8352,7 +8354,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="12.45">
+    <row r="217" spans="1:26" ht="12.5">
       <c r="A217" s="1"/>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
@@ -8364,7 +8366,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="12.45">
+    <row r="218" spans="1:26" ht="12.5">
       <c r="A218" s="1"/>
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
@@ -8376,7 +8378,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="12.45">
+    <row r="219" spans="1:26" ht="12.5">
       <c r="A219" s="1"/>
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
@@ -8388,7 +8390,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="12.45">
+    <row r="220" spans="1:26" ht="12.5">
       <c r="A220" s="1"/>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
@@ -8400,7 +8402,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="12.45">
+    <row r="221" spans="1:26" ht="12.5">
       <c r="A221" s="1"/>
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
@@ -8412,7 +8414,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="12.45">
+    <row r="222" spans="1:26" ht="12.5">
       <c r="A222" s="1"/>
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
@@ -8424,7 +8426,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="12.45">
+    <row r="223" spans="1:26" ht="12.5">
       <c r="A223" s="1"/>
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
@@ -8436,7 +8438,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="12.45">
+    <row r="224" spans="1:26" ht="12.5">
       <c r="A224" s="1"/>
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
@@ -8448,7 +8450,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="12.45">
+    <row r="225" spans="1:26" ht="12.5">
       <c r="A225" s="1"/>
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
@@ -8460,7 +8462,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="12.45">
+    <row r="226" spans="1:26" ht="12.5">
       <c r="A226" s="1"/>
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
@@ -8472,7 +8474,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="12.45">
+    <row r="227" spans="1:26" ht="12.5">
       <c r="A227" s="1"/>
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
@@ -8484,7 +8486,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="12.45">
+    <row r="228" spans="1:26" ht="12.5">
       <c r="A228" s="1"/>
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
@@ -8496,7 +8498,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="12.45">
+    <row r="229" spans="1:26" ht="12.5">
       <c r="A229" s="1"/>
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
@@ -8508,7 +8510,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="12.45">
+    <row r="230" spans="1:26" ht="12.5">
       <c r="A230" s="1"/>
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
@@ -8520,7 +8522,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="12.45">
+    <row r="231" spans="1:26" ht="12.5">
       <c r="A231" s="1"/>
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
@@ -8532,7 +8534,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="12.45">
+    <row r="232" spans="1:26" ht="12.5">
       <c r="A232" s="1"/>
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
@@ -8544,7 +8546,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="12.45">
+    <row r="233" spans="1:26" ht="12.5">
       <c r="A233" s="1"/>
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
@@ -8556,7 +8558,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="12.45">
+    <row r="234" spans="1:26" ht="12.5">
       <c r="A234" s="1"/>
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
@@ -8568,7 +8570,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="12.45">
+    <row r="235" spans="1:26" ht="12.5">
       <c r="A235" s="1"/>
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
@@ -8580,7 +8582,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="12.45">
+    <row r="236" spans="1:26" ht="12.5">
       <c r="A236" s="1"/>
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
@@ -8592,7 +8594,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="12.45">
+    <row r="237" spans="1:26" ht="12.5">
       <c r="A237" s="1"/>
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
@@ -8604,7 +8606,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="12.45">
+    <row r="238" spans="1:26" ht="12.5">
       <c r="A238" s="1"/>
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
@@ -8616,7 +8618,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="12.45">
+    <row r="239" spans="1:26" ht="12.5">
       <c r="A239" s="1"/>
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
@@ -8628,7 +8630,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="12.45">
+    <row r="240" spans="1:26" ht="12.5">
       <c r="A240" s="1"/>
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
@@ -8640,7 +8642,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="12.45">
+    <row r="241" spans="1:26" ht="12.5">
       <c r="A241" s="1"/>
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
@@ -8652,7 +8654,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="12.45">
+    <row r="242" spans="1:26" ht="12.5">
       <c r="A242" s="1"/>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
@@ -8664,7 +8666,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="12.45">
+    <row r="243" spans="1:26" ht="12.5">
       <c r="A243" s="1"/>
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
@@ -8676,7 +8678,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="12.45">
+    <row r="244" spans="1:26" ht="12.5">
       <c r="A244" s="1"/>
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
@@ -8688,7 +8690,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="12.45">
+    <row r="245" spans="1:26" ht="12.5">
       <c r="A245" s="1"/>
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
@@ -8700,7 +8702,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="12.45">
+    <row r="246" spans="1:26" ht="12.5">
       <c r="A246" s="1"/>
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
@@ -8712,7 +8714,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="12.45">
+    <row r="247" spans="1:26" ht="12.5">
       <c r="A247" s="1"/>
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
@@ -8724,7 +8726,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="12.45">
+    <row r="248" spans="1:26" ht="12.5">
       <c r="A248" s="1"/>
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
@@ -8736,7 +8738,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="12.45">
+    <row r="249" spans="1:26" ht="12.5">
       <c r="A249" s="1"/>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
@@ -8748,7 +8750,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="12.45">
+    <row r="250" spans="1:26" ht="12.5">
       <c r="A250" s="1"/>
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
@@ -8760,7 +8762,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="12.45">
+    <row r="251" spans="1:26" ht="12.5">
       <c r="A251" s="1"/>
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
@@ -8772,7 +8774,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="12.45">
+    <row r="252" spans="1:26" ht="12.5">
       <c r="A252" s="1"/>
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
@@ -8784,7 +8786,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="12.45">
+    <row r="253" spans="1:26" ht="12.5">
       <c r="A253" s="1"/>
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
@@ -8796,7 +8798,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="12.45">
+    <row r="254" spans="1:26" ht="12.5">
       <c r="A254" s="1"/>
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
@@ -8808,7 +8810,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="12.45">
+    <row r="255" spans="1:26" ht="12.5">
       <c r="A255" s="1"/>
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
@@ -8820,7 +8822,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="12.45">
+    <row r="256" spans="1:26" ht="12.5">
       <c r="A256" s="1"/>
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
@@ -8832,7 +8834,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="12.45">
+    <row r="257" spans="1:26" ht="12.5">
       <c r="A257" s="1"/>
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
@@ -8844,7 +8846,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="12.45">
+    <row r="258" spans="1:26" ht="12.5">
       <c r="A258" s="1"/>
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
@@ -8856,7 +8858,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="12.45">
+    <row r="259" spans="1:26" ht="12.5">
       <c r="A259" s="1"/>
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
@@ -8868,7 +8870,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="12.45">
+    <row r="260" spans="1:26" ht="12.5">
       <c r="A260" s="1"/>
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
@@ -8880,7 +8882,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="12.45">
+    <row r="261" spans="1:26" ht="12.5">
       <c r="A261" s="1"/>
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
@@ -8892,7 +8894,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26" ht="12.45">
+    <row r="262" spans="1:26" ht="12.5">
       <c r="A262" s="1"/>
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
@@ -8904,7 +8906,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26" ht="12.45">
+    <row r="263" spans="1:26" ht="12.5">
       <c r="A263" s="1"/>
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
@@ -8916,7 +8918,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26" ht="12.45">
+    <row r="264" spans="1:26" ht="12.5">
       <c r="A264" s="1"/>
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
@@ -8928,7 +8930,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26" ht="12.45">
+    <row r="265" spans="1:26" ht="12.5">
       <c r="A265" s="1"/>
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
@@ -8940,7 +8942,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26" ht="12.45">
+    <row r="266" spans="1:26" ht="12.5">
       <c r="A266" s="1"/>
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
@@ -8952,7 +8954,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="12.45">
+    <row r="267" spans="1:26" ht="12.5">
       <c r="A267" s="1"/>
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
@@ -8964,7 +8966,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:26" ht="12.45">
+    <row r="268" spans="1:26" ht="12.5">
       <c r="A268" s="1"/>
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
@@ -8976,7 +8978,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" spans="1:26" ht="12.45">
+    <row r="269" spans="1:26" ht="12.5">
       <c r="A269" s="1"/>
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
@@ -8988,7 +8990,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:26" ht="12.45">
+    <row r="270" spans="1:26" ht="12.5">
       <c r="A270" s="1"/>
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
@@ -9000,7 +9002,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:26" ht="12.45">
+    <row r="271" spans="1:26" ht="12.5">
       <c r="A271" s="1"/>
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
@@ -9012,7 +9014,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:26" ht="12.45">
+    <row r="272" spans="1:26" ht="12.5">
       <c r="A272" s="1"/>
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
@@ -9024,7 +9026,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" spans="1:26" ht="12.45">
+    <row r="273" spans="1:26" ht="12.5">
       <c r="A273" s="1"/>
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
@@ -9036,7 +9038,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" spans="1:26" ht="12.45">
+    <row r="274" spans="1:26" ht="12.5">
       <c r="A274" s="1"/>
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
@@ -9048,7 +9050,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" spans="1:26" ht="12.45">
+    <row r="275" spans="1:26" ht="12.5">
       <c r="A275" s="1"/>
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
@@ -9060,7 +9062,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26" ht="12.45">
+    <row r="276" spans="1:26" ht="12.5">
       <c r="A276" s="1"/>
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
@@ -9072,7 +9074,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26" ht="12.45">
+    <row r="277" spans="1:26" ht="12.5">
       <c r="A277" s="1"/>
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
@@ -9084,7 +9086,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" spans="1:26" ht="12.45">
+    <row r="278" spans="1:26" ht="12.5">
       <c r="A278" s="1"/>
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
@@ -9096,7 +9098,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" spans="1:26" ht="12.45">
+    <row r="279" spans="1:26" ht="12.5">
       <c r="A279" s="1"/>
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
@@ -9108,7 +9110,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" spans="1:26" ht="12.45">
+    <row r="280" spans="1:26" ht="12.5">
       <c r="A280" s="1"/>
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
@@ -9120,7 +9122,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" spans="1:26" ht="12.45">
+    <row r="281" spans="1:26" ht="12.5">
       <c r="A281" s="1"/>
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
@@ -9132,7 +9134,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" spans="1:26" ht="12.45">
+    <row r="282" spans="1:26" ht="12.5">
       <c r="A282" s="1"/>
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
@@ -9144,7 +9146,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" spans="1:26" ht="12.45">
+    <row r="283" spans="1:26" ht="12.5">
       <c r="A283" s="1"/>
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
@@ -9156,7 +9158,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" spans="1:26" ht="12.45">
+    <row r="284" spans="1:26" ht="12.5">
       <c r="A284" s="1"/>
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
@@ -9168,7 +9170,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" spans="1:26" ht="12.45">
+    <row r="285" spans="1:26" ht="12.5">
       <c r="A285" s="1"/>
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
@@ -9180,7 +9182,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" spans="1:26" ht="12.45">
+    <row r="286" spans="1:26" ht="12.5">
       <c r="A286" s="1"/>
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
@@ -9192,7 +9194,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" spans="1:26" ht="12.45">
+    <row r="287" spans="1:26" ht="12.5">
       <c r="A287" s="1"/>
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
@@ -9204,7 +9206,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" spans="1:26" ht="12.45">
+    <row r="288" spans="1:26" ht="12.5">
       <c r="A288" s="1"/>
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
@@ -9216,7 +9218,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" spans="1:26" ht="12.45">
+    <row r="289" spans="1:26" ht="12.5">
       <c r="A289" s="1"/>
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
@@ -9228,7 +9230,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" spans="1:26" ht="12.45">
+    <row r="290" spans="1:26" ht="12.5">
       <c r="A290" s="1"/>
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
@@ -9240,7 +9242,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" spans="1:26" ht="12.45">
+    <row r="291" spans="1:26" ht="12.5">
       <c r="A291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
@@ -9252,7 +9254,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" spans="1:26" ht="12.45">
+    <row r="292" spans="1:26" ht="12.5">
       <c r="A292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
@@ -9264,7 +9266,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" spans="1:26" ht="12.45">
+    <row r="293" spans="1:26" ht="12.5">
       <c r="A293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
@@ -9276,7 +9278,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" spans="1:26" ht="12.45">
+    <row r="294" spans="1:26" ht="12.5">
       <c r="A294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
@@ -9288,7 +9290,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" spans="1:26" ht="12.45">
+    <row r="295" spans="1:26" ht="12.5">
       <c r="A295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
@@ -9300,7 +9302,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" spans="1:26" ht="12.45">
+    <row r="296" spans="1:26" ht="12.5">
       <c r="A296" s="1"/>
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
@@ -9312,7 +9314,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" spans="1:26" ht="12.45">
+    <row r="297" spans="1:26" ht="12.5">
       <c r="A297" s="1"/>
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
@@ -9324,7 +9326,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" spans="1:26" ht="12.45">
+    <row r="298" spans="1:26" ht="12.5">
       <c r="A298" s="1"/>
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
@@ -9336,7 +9338,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" spans="1:26" ht="12.45">
+    <row r="299" spans="1:26" ht="12.5">
       <c r="A299" s="1"/>
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
@@ -9348,7 +9350,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" spans="1:26" ht="12.45">
+    <row r="300" spans="1:26" ht="12.5">
       <c r="A300" s="1"/>
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
@@ -9360,7 +9362,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" spans="1:26" ht="12.45">
+    <row r="301" spans="1:26" ht="12.5">
       <c r="A301" s="1"/>
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
@@ -9372,7 +9374,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" spans="1:26" ht="12.45">
+    <row r="302" spans="1:26" ht="12.5">
       <c r="A302" s="1"/>
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
@@ -9384,7 +9386,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" spans="1:26" ht="12.45">
+    <row r="303" spans="1:26" ht="12.5">
       <c r="A303" s="1"/>
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
@@ -9396,7 +9398,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" spans="1:26" ht="12.45">
+    <row r="304" spans="1:26" ht="12.5">
       <c r="A304" s="1"/>
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
@@ -9408,7 +9410,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" spans="1:26" ht="12.45">
+    <row r="305" spans="1:26" ht="12.5">
       <c r="A305" s="1"/>
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
@@ -9420,7 +9422,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" spans="1:26" ht="12.45">
+    <row r="306" spans="1:26" ht="12.5">
       <c r="A306" s="1"/>
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
@@ -9432,7 +9434,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" spans="1:26" ht="12.45">
+    <row r="307" spans="1:26" ht="12.5">
       <c r="A307" s="1"/>
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
@@ -9444,7 +9446,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" spans="1:26" ht="12.45">
+    <row r="308" spans="1:26" ht="12.5">
       <c r="A308" s="1"/>
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
@@ -9456,7 +9458,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" spans="1:26" ht="12.45">
+    <row r="309" spans="1:26" ht="12.5">
       <c r="A309" s="1"/>
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
@@ -9468,7 +9470,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" spans="1:26" ht="12.45">
+    <row r="310" spans="1:26" ht="12.5">
       <c r="A310" s="1"/>
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
@@ -9480,7 +9482,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" spans="1:26" ht="12.45">
+    <row r="311" spans="1:26" ht="12.5">
       <c r="A311" s="1"/>
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
@@ -9492,7 +9494,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" spans="1:26" ht="12.45">
+    <row r="312" spans="1:26" ht="12.5">
       <c r="A312" s="1"/>
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
@@ -9504,7 +9506,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" spans="1:26" ht="12.45">
+    <row r="313" spans="1:26" ht="12.5">
       <c r="A313" s="1"/>
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
@@ -9516,7 +9518,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" spans="1:26" ht="12.45">
+    <row r="314" spans="1:26" ht="12.5">
       <c r="A314" s="1"/>
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
@@ -9528,7 +9530,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" spans="1:26" ht="12.45">
+    <row r="315" spans="1:26" ht="12.5">
       <c r="A315" s="1"/>
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
@@ -9540,7 +9542,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" spans="1:26" ht="12.45">
+    <row r="316" spans="1:26" ht="12.5">
       <c r="A316" s="1"/>
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
@@ -9552,7 +9554,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" spans="1:26" ht="12.45">
+    <row r="317" spans="1:26" ht="12.5">
       <c r="A317" s="1"/>
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
@@ -9564,7 +9566,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" spans="1:26" ht="12.45">
+    <row r="318" spans="1:26" ht="12.5">
       <c r="A318" s="1"/>
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
@@ -9576,7 +9578,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" spans="1:26" ht="12.45">
+    <row r="319" spans="1:26" ht="12.5">
       <c r="A319" s="1"/>
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
@@ -9588,7 +9590,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" spans="1:26" ht="12.45">
+    <row r="320" spans="1:26" ht="12.5">
       <c r="A320" s="1"/>
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
@@ -9600,7 +9602,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" spans="1:26" ht="12.45">
+    <row r="321" spans="1:26" ht="12.5">
       <c r="A321" s="1"/>
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
@@ -9612,7 +9614,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" spans="1:26" ht="12.45">
+    <row r="322" spans="1:26" ht="12.5">
       <c r="A322" s="1"/>
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
@@ -9624,7 +9626,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" spans="1:26" ht="12.45">
+    <row r="323" spans="1:26" ht="12.5">
       <c r="A323" s="1"/>
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
@@ -9636,7 +9638,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" spans="1:26" ht="12.45">
+    <row r="324" spans="1:26" ht="12.5">
       <c r="A324" s="1"/>
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
@@ -9648,7 +9650,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" spans="1:26" ht="12.45">
+    <row r="325" spans="1:26" ht="12.5">
       <c r="A325" s="1"/>
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
@@ -9660,7 +9662,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" spans="1:26" ht="12.45">
+    <row r="326" spans="1:26" ht="12.5">
       <c r="A326" s="1"/>
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
@@ -9672,7 +9674,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" spans="1:26" ht="12.45">
+    <row r="327" spans="1:26" ht="12.5">
       <c r="A327" s="1"/>
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
@@ -9684,7 +9686,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" spans="1:26" ht="12.45">
+    <row r="328" spans="1:26" ht="12.5">
       <c r="A328" s="1"/>
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
@@ -9696,7 +9698,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" spans="1:26" ht="12.45">
+    <row r="329" spans="1:26" ht="12.5">
       <c r="A329" s="1"/>
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
@@ -9708,7 +9710,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" spans="1:26" ht="12.45">
+    <row r="330" spans="1:26" ht="12.5">
       <c r="A330" s="1"/>
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
@@ -9720,7 +9722,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" spans="1:26" ht="12.45">
+    <row r="331" spans="1:26" ht="12.5">
       <c r="A331" s="1"/>
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
@@ -9732,7 +9734,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" spans="1:26" ht="12.45">
+    <row r="332" spans="1:26" ht="12.5">
       <c r="A332" s="1"/>
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
@@ -9744,7 +9746,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" spans="1:26" ht="12.45">
+    <row r="333" spans="1:26" ht="12.5">
       <c r="A333" s="1"/>
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
@@ -9756,7 +9758,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" spans="1:26" ht="12.45">
+    <row r="334" spans="1:26" ht="12.5">
       <c r="A334" s="1"/>
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
@@ -9768,7 +9770,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" spans="1:26" ht="12.45">
+    <row r="335" spans="1:26" ht="12.5">
       <c r="A335" s="1"/>
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
@@ -9780,7 +9782,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" spans="1:26" ht="12.45">
+    <row r="336" spans="1:26" ht="12.5">
       <c r="A336" s="1"/>
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
@@ -9792,7 +9794,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" spans="1:26" ht="12.45">
+    <row r="337" spans="1:26" ht="12.5">
       <c r="A337" s="1"/>
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
@@ -9804,7 +9806,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" spans="1:26" ht="12.45">
+    <row r="338" spans="1:26" ht="12.5">
       <c r="A338" s="1"/>
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
@@ -9816,7 +9818,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" spans="1:26" ht="12.45">
+    <row r="339" spans="1:26" ht="12.5">
       <c r="A339" s="1"/>
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
@@ -9828,7 +9830,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" spans="1:26" ht="12.45">
+    <row r="340" spans="1:26" ht="12.5">
       <c r="A340" s="1"/>
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
@@ -9840,7 +9842,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" spans="1:26" ht="12.45">
+    <row r="341" spans="1:26" ht="12.5">
       <c r="A341" s="1"/>
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
@@ -9852,7 +9854,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" spans="1:26" ht="12.45">
+    <row r="342" spans="1:26" ht="12.5">
       <c r="A342" s="1"/>
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
@@ -9864,7 +9866,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" spans="1:26" ht="12.45">
+    <row r="343" spans="1:26" ht="12.5">
       <c r="A343" s="1"/>
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
@@ -9876,7 +9878,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" spans="1:26" ht="12.45">
+    <row r="344" spans="1:26" ht="12.5">
       <c r="A344" s="1"/>
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
@@ -9888,7 +9890,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" spans="1:26" ht="12.45">
+    <row r="345" spans="1:26" ht="12.5">
       <c r="A345" s="1"/>
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
@@ -9900,7 +9902,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" spans="1:26" ht="12.45">
+    <row r="346" spans="1:26" ht="12.5">
       <c r="A346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
@@ -9912,7 +9914,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" spans="1:26" ht="12.45">
+    <row r="347" spans="1:26" ht="12.5">
       <c r="A347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
@@ -9924,7 +9926,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" spans="1:26" ht="12.45">
+    <row r="348" spans="1:26" ht="12.5">
       <c r="A348" s="1"/>
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
@@ -9936,7 +9938,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" spans="1:26" ht="12.45">
+    <row r="349" spans="1:26" ht="12.5">
       <c r="A349" s="1"/>
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
@@ -9948,7 +9950,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" spans="1:26" ht="12.45">
+    <row r="350" spans="1:26" ht="12.5">
       <c r="A350" s="1"/>
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
@@ -9960,7 +9962,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" spans="1:26" ht="12.45">
+    <row r="351" spans="1:26" ht="12.5">
       <c r="A351" s="1"/>
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
@@ -9972,7 +9974,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" spans="1:26" ht="12.45">
+    <row r="352" spans="1:26" ht="12.5">
       <c r="A352" s="1"/>
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
@@ -9984,7 +9986,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" spans="1:26" ht="12.45">
+    <row r="353" spans="1:26" ht="12.5">
       <c r="A353" s="1"/>
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
@@ -9996,7 +9998,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" spans="1:26" ht="12.45">
+    <row r="354" spans="1:26" ht="12.5">
       <c r="A354" s="1"/>
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
@@ -10008,7 +10010,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" spans="1:26" ht="12.45">
+    <row r="355" spans="1:26" ht="12.5">
       <c r="A355" s="1"/>
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
@@ -10020,7 +10022,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" spans="1:26" ht="12.45">
+    <row r="356" spans="1:26" ht="12.5">
       <c r="A356" s="1"/>
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
@@ -10032,7 +10034,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" spans="1:26" ht="12.45">
+    <row r="357" spans="1:26" ht="12.5">
       <c r="A357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
@@ -10044,7 +10046,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" spans="1:26" ht="12.45">
+    <row r="358" spans="1:26" ht="12.5">
       <c r="A358" s="1"/>
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
@@ -10056,7 +10058,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" spans="1:26" ht="12.45">
+    <row r="359" spans="1:26" ht="12.5">
       <c r="A359" s="1"/>
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
@@ -10068,7 +10070,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" spans="1:26" ht="12.45">
+    <row r="360" spans="1:26" ht="12.5">
       <c r="A360" s="1"/>
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
@@ -10080,7 +10082,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" spans="1:26" ht="12.45">
+    <row r="361" spans="1:26" ht="12.5">
       <c r="A361" s="1"/>
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
@@ -10092,7 +10094,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" spans="1:26" ht="12.45">
+    <row r="362" spans="1:26" ht="12.5">
       <c r="A362" s="1"/>
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
@@ -10104,7 +10106,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" spans="1:26" ht="12.45">
+    <row r="363" spans="1:26" ht="12.5">
       <c r="A363" s="1"/>
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
@@ -10116,7 +10118,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" spans="1:26" ht="12.45">
+    <row r="364" spans="1:26" ht="12.5">
       <c r="A364" s="1"/>
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
@@ -10128,7 +10130,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" spans="1:26" ht="12.45">
+    <row r="365" spans="1:26" ht="12.5">
       <c r="A365" s="1"/>
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
@@ -10140,7 +10142,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" spans="1:26" ht="12.45">
+    <row r="366" spans="1:26" ht="12.5">
       <c r="A366" s="1"/>
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
@@ -10152,7 +10154,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" spans="1:26" ht="12.45">
+    <row r="367" spans="1:26" ht="12.5">
       <c r="A367" s="1"/>
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
@@ -10164,7 +10166,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" spans="1:26" ht="12.45">
+    <row r="368" spans="1:26" ht="12.5">
       <c r="A368" s="1"/>
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
@@ -10176,7 +10178,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" spans="1:26" ht="12.45">
+    <row r="369" spans="1:26" ht="12.5">
       <c r="A369" s="1"/>
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
@@ -10188,7 +10190,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" spans="1:26" ht="12.45">
+    <row r="370" spans="1:26" ht="12.5">
       <c r="A370" s="1"/>
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
@@ -10200,7 +10202,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" spans="1:26" ht="12.45">
+    <row r="371" spans="1:26" ht="12.5">
       <c r="A371" s="1"/>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
@@ -10212,7 +10214,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" spans="1:26" ht="12.45">
+    <row r="372" spans="1:26" ht="12.5">
       <c r="A372" s="1"/>
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
@@ -10224,7 +10226,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" spans="1:26" ht="12.45">
+    <row r="373" spans="1:26" ht="12.5">
       <c r="A373" s="1"/>
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
@@ -10236,7 +10238,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" spans="1:26" ht="12.45">
+    <row r="374" spans="1:26" ht="12.5">
       <c r="A374" s="1"/>
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
@@ -10248,7 +10250,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" spans="1:26" ht="12.45">
+    <row r="375" spans="1:26" ht="12.5">
       <c r="A375" s="1"/>
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
@@ -10260,7 +10262,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" spans="1:26" ht="12.45">
+    <row r="376" spans="1:26" ht="12.5">
       <c r="A376" s="1"/>
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
@@ -10272,7 +10274,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" spans="1:26" ht="12.45">
+    <row r="377" spans="1:26" ht="12.5">
       <c r="A377" s="1"/>
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
@@ -10284,7 +10286,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" spans="1:26" ht="12.45">
+    <row r="378" spans="1:26" ht="12.5">
       <c r="A378" s="1"/>
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
@@ -10296,7 +10298,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" spans="1:26" ht="12.45">
+    <row r="379" spans="1:26" ht="12.5">
       <c r="A379" s="1"/>
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
@@ -10308,7 +10310,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" spans="1:26" ht="12.45">
+    <row r="380" spans="1:26" ht="12.5">
       <c r="A380" s="1"/>
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
@@ -10320,7 +10322,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" spans="1:26" ht="12.45">
+    <row r="381" spans="1:26" ht="12.5">
       <c r="A381" s="1"/>
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
@@ -10332,7 +10334,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" spans="1:26" ht="12.45">
+    <row r="382" spans="1:26" ht="12.5">
       <c r="A382" s="1"/>
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
@@ -10344,7 +10346,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" spans="1:26" ht="12.45">
+    <row r="383" spans="1:26" ht="12.5">
       <c r="A383" s="1"/>
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
@@ -10356,7 +10358,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" spans="1:26" ht="12.45">
+    <row r="384" spans="1:26" ht="12.5">
       <c r="A384" s="1"/>
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
@@ -10368,7 +10370,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" spans="1:26" ht="12.45">
+    <row r="385" spans="1:26" ht="12.5">
       <c r="A385" s="1"/>
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
@@ -10380,7 +10382,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" spans="1:26" ht="12.45">
+    <row r="386" spans="1:26" ht="12.5">
       <c r="A386" s="1"/>
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
@@ -10392,7 +10394,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" spans="1:26" ht="12.45">
+    <row r="387" spans="1:26" ht="12.5">
       <c r="A387" s="1"/>
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
@@ -10404,7 +10406,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" spans="1:26" ht="12.45">
+    <row r="388" spans="1:26" ht="12.5">
       <c r="A388" s="1"/>
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
@@ -10416,7 +10418,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" spans="1:26" ht="12.45">
+    <row r="389" spans="1:26" ht="12.5">
       <c r="A389" s="1"/>
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
@@ -10428,7 +10430,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" spans="1:26" ht="12.45">
+    <row r="390" spans="1:26" ht="12.5">
       <c r="A390" s="1"/>
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
@@ -10440,7 +10442,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" spans="1:26" ht="12.45">
+    <row r="391" spans="1:26" ht="12.5">
       <c r="A391" s="1"/>
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
@@ -10452,7 +10454,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" spans="1:26" ht="12.45">
+    <row r="392" spans="1:26" ht="12.5">
       <c r="A392" s="1"/>
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
@@ -10464,7 +10466,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" spans="1:26" ht="12.45">
+    <row r="393" spans="1:26" ht="12.5">
       <c r="A393" s="1"/>
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
@@ -10476,7 +10478,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" spans="1:26" ht="12.45">
+    <row r="394" spans="1:26" ht="12.5">
       <c r="A394" s="1"/>
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
@@ -10488,7 +10490,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" spans="1:26" ht="12.45">
+    <row r="395" spans="1:26" ht="12.5">
       <c r="A395" s="1"/>
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
@@ -10500,7 +10502,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" spans="1:26" ht="12.45">
+    <row r="396" spans="1:26" ht="12.5">
       <c r="A396" s="1"/>
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
@@ -10512,7 +10514,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" spans="1:26" ht="12.45">
+    <row r="397" spans="1:26" ht="12.5">
       <c r="A397" s="1"/>
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
@@ -10524,7 +10526,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" spans="1:26" ht="12.45">
+    <row r="398" spans="1:26" ht="12.5">
       <c r="A398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
@@ -10536,7 +10538,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" spans="1:26" ht="12.45">
+    <row r="399" spans="1:26" ht="12.5">
       <c r="A399" s="1"/>
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
@@ -10548,7 +10550,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" spans="1:26" ht="12.45">
+    <row r="400" spans="1:26" ht="12.5">
       <c r="A400" s="1"/>
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
@@ -10560,7 +10562,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" spans="1:26" ht="12.45">
+    <row r="401" spans="1:26" ht="12.5">
       <c r="A401" s="1"/>
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
@@ -10572,7 +10574,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" spans="1:26" ht="12.45">
+    <row r="402" spans="1:26" ht="12.5">
       <c r="A402" s="1"/>
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
@@ -10584,7 +10586,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" spans="1:26" ht="12.45">
+    <row r="403" spans="1:26" ht="12.5">
       <c r="A403" s="1"/>
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
@@ -10596,7 +10598,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" spans="1:26" ht="12.45">
+    <row r="404" spans="1:26" ht="12.5">
       <c r="A404" s="1"/>
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
@@ -10608,7 +10610,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" spans="1:26" ht="12.45">
+    <row r="405" spans="1:26" ht="12.5">
       <c r="A405" s="1"/>
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
@@ -10620,7 +10622,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" spans="1:26" ht="12.45">
+    <row r="406" spans="1:26" ht="12.5">
       <c r="A406" s="1"/>
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
@@ -10632,7 +10634,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" spans="1:26" ht="12.45">
+    <row r="407" spans="1:26" ht="12.5">
       <c r="A407" s="1"/>
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
@@ -10644,7 +10646,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" spans="1:26" ht="12.45">
+    <row r="408" spans="1:26" ht="12.5">
       <c r="A408" s="1"/>
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
@@ -10656,7 +10658,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" spans="1:26" ht="12.45">
+    <row r="409" spans="1:26" ht="12.5">
       <c r="A409" s="1"/>
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
@@ -10668,7 +10670,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" spans="1:26" ht="12.45">
+    <row r="410" spans="1:26" ht="12.5">
       <c r="A410" s="1"/>
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
@@ -10680,7 +10682,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" spans="1:26" ht="12.45">
+    <row r="411" spans="1:26" ht="12.5">
       <c r="A411" s="1"/>
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
@@ -10692,7 +10694,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" spans="1:26" ht="12.45">
+    <row r="412" spans="1:26" ht="12.5">
       <c r="A412" s="1"/>
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
@@ -10704,7 +10706,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" spans="1:26" ht="12.45">
+    <row r="413" spans="1:26" ht="12.5">
       <c r="A413" s="1"/>
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
@@ -10716,7 +10718,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" spans="1:26" ht="12.45">
+    <row r="414" spans="1:26" ht="12.5">
       <c r="A414" s="1"/>
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
@@ -10728,7 +10730,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" spans="1:26" ht="12.45">
+    <row r="415" spans="1:26" ht="12.5">
       <c r="A415" s="1"/>
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
@@ -10740,7 +10742,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" spans="1:26" ht="12.45">
+    <row r="416" spans="1:26" ht="12.5">
       <c r="A416" s="1"/>
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
@@ -10752,7 +10754,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" spans="1:26" ht="12.45">
+    <row r="417" spans="1:26" ht="12.5">
       <c r="A417" s="1"/>
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
@@ -10764,7 +10766,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" spans="1:26" ht="12.45">
+    <row r="418" spans="1:26" ht="12.5">
       <c r="A418" s="1"/>
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
@@ -10776,7 +10778,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" spans="1:26" ht="12.45">
+    <row r="419" spans="1:26" ht="12.5">
       <c r="A419" s="1"/>
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
@@ -10788,7 +10790,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" spans="1:26" ht="12.45">
+    <row r="420" spans="1:26" ht="12.5">
       <c r="A420" s="1"/>
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
@@ -10800,7 +10802,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" spans="1:26" ht="12.45">
+    <row r="421" spans="1:26" ht="12.5">
       <c r="A421" s="1"/>
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
@@ -10812,7 +10814,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" spans="1:26" ht="12.45">
+    <row r="422" spans="1:26" ht="12.5">
       <c r="A422" s="1"/>
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
@@ -10824,7 +10826,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" spans="1:26" ht="12.45">
+    <row r="423" spans="1:26" ht="12.5">
       <c r="A423" s="1"/>
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
@@ -10836,7 +10838,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" spans="1:26" ht="12.45">
+    <row r="424" spans="1:26" ht="12.5">
       <c r="A424" s="1"/>
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
@@ -10848,7 +10850,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" spans="1:26" ht="12.45">
+    <row r="425" spans="1:26" ht="12.5">
       <c r="A425" s="1"/>
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
@@ -10860,7 +10862,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" spans="1:26" ht="12.45">
+    <row r="426" spans="1:26" ht="12.5">
       <c r="A426" s="1"/>
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
@@ -10872,7 +10874,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" spans="1:26" ht="12.45">
+    <row r="427" spans="1:26" ht="12.5">
       <c r="A427" s="1"/>
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
@@ -10884,7 +10886,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" spans="1:26" ht="12.45">
+    <row r="428" spans="1:26" ht="12.5">
       <c r="A428" s="1"/>
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
@@ -10896,7 +10898,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" spans="1:26" ht="12.45">
+    <row r="429" spans="1:26" ht="12.5">
       <c r="A429" s="1"/>
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
@@ -10908,7 +10910,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" spans="1:26" ht="12.45">
+    <row r="430" spans="1:26" ht="12.5">
       <c r="A430" s="1"/>
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
@@ -10920,7 +10922,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" spans="1:26" ht="12.45">
+    <row r="431" spans="1:26" ht="12.5">
       <c r="A431" s="1"/>
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
@@ -10932,7 +10934,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" spans="1:26" ht="12.45">
+    <row r="432" spans="1:26" ht="12.5">
       <c r="A432" s="1"/>
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
@@ -10944,7 +10946,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" spans="1:26" ht="12.45">
+    <row r="433" spans="1:26" ht="12.5">
       <c r="A433" s="1"/>
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
@@ -10956,7 +10958,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" spans="1:26" ht="12.45">
+    <row r="434" spans="1:26" ht="12.5">
       <c r="A434" s="1"/>
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
@@ -10968,7 +10970,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" spans="1:26" ht="12.45">
+    <row r="435" spans="1:26" ht="12.5">
       <c r="A435" s="1"/>
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
@@ -10980,7 +10982,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26" ht="12.45">
+    <row r="436" spans="1:26" ht="12.5">
       <c r="A436" s="1"/>
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
@@ -10992,7 +10994,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" spans="1:26" ht="12.45">
+    <row r="437" spans="1:26" ht="12.5">
       <c r="A437" s="1"/>
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
@@ -11004,7 +11006,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" spans="1:26" ht="12.45">
+    <row r="438" spans="1:26" ht="12.5">
       <c r="A438" s="1"/>
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
@@ -11016,7 +11018,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" spans="1:26" ht="12.45">
+    <row r="439" spans="1:26" ht="12.5">
       <c r="A439" s="1"/>
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
@@ -11028,7 +11030,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" spans="1:26" ht="12.45">
+    <row r="440" spans="1:26" ht="12.5">
       <c r="A440" s="1"/>
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
@@ -11040,7 +11042,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" spans="1:26" ht="12.45">
+    <row r="441" spans="1:26" ht="12.5">
       <c r="A441" s="1"/>
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
@@ -11052,7 +11054,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" spans="1:26" ht="12.45">
+    <row r="442" spans="1:26" ht="12.5">
       <c r="A442" s="1"/>
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
@@ -11064,7 +11066,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" spans="1:26" ht="12.45">
+    <row r="443" spans="1:26" ht="12.5">
       <c r="A443" s="1"/>
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
@@ -11076,7 +11078,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" spans="1:26" ht="12.45">
+    <row r="444" spans="1:26" ht="12.5">
       <c r="A444" s="1"/>
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
@@ -11088,7 +11090,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" spans="1:26" ht="12.45">
+    <row r="445" spans="1:26" ht="12.5">
       <c r="A445" s="1"/>
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
@@ -11100,7 +11102,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" spans="1:26" ht="12.45">
+    <row r="446" spans="1:26" ht="12.5">
       <c r="A446" s="1"/>
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
@@ -11112,7 +11114,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" spans="1:26" ht="12.45">
+    <row r="447" spans="1:26" ht="12.5">
       <c r="A447" s="1"/>
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
@@ -11124,7 +11126,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" spans="1:26" ht="12.45">
+    <row r="448" spans="1:26" ht="12.5">
       <c r="A448" s="1"/>
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
@@ -11136,7 +11138,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" spans="1:26" ht="12.45">
+    <row r="449" spans="1:26" ht="12.5">
       <c r="A449" s="1"/>
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
@@ -11148,7 +11150,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" spans="1:26" ht="12.45">
+    <row r="450" spans="1:26" ht="12.5">
       <c r="A450" s="1"/>
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
@@ -11160,7 +11162,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" spans="1:26" ht="12.45">
+    <row r="451" spans="1:26" ht="12.5">
       <c r="A451" s="1"/>
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
@@ -11172,7 +11174,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" spans="1:26" ht="12.45">
+    <row r="452" spans="1:26" ht="12.5">
       <c r="A452" s="1"/>
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
@@ -11184,7 +11186,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" spans="1:26" ht="12.45">
+    <row r="453" spans="1:26" ht="12.5">
       <c r="A453" s="1"/>
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
@@ -11196,7 +11198,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" spans="1:26" ht="12.45">
+    <row r="454" spans="1:26" ht="12.5">
       <c r="A454" s="1"/>
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
@@ -11208,7 +11210,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" spans="1:26" ht="12.45">
+    <row r="455" spans="1:26" ht="12.5">
       <c r="A455" s="1"/>
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
@@ -11220,7 +11222,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" spans="1:26" ht="12.45">
+    <row r="456" spans="1:26" ht="12.5">
       <c r="A456" s="1"/>
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
@@ -11232,7 +11234,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" spans="1:26" ht="12.45">
+    <row r="457" spans="1:26" ht="12.5">
       <c r="A457" s="1"/>
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
@@ -11244,7 +11246,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" spans="1:26" ht="12.45">
+    <row r="458" spans="1:26" ht="12.5">
       <c r="A458" s="1"/>
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
@@ -11256,7 +11258,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" spans="1:26" ht="12.45">
+    <row r="459" spans="1:26" ht="12.5">
       <c r="A459" s="1"/>
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
@@ -11268,7 +11270,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" spans="1:26" ht="12.45">
+    <row r="460" spans="1:26" ht="12.5">
       <c r="A460" s="1"/>
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
@@ -11280,7 +11282,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" spans="1:26" ht="12.45">
+    <row r="461" spans="1:26" ht="12.5">
       <c r="A461" s="1"/>
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
@@ -11292,7 +11294,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" spans="1:26" ht="12.45">
+    <row r="462" spans="1:26" ht="12.5">
       <c r="A462" s="1"/>
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
@@ -11304,7 +11306,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" spans="1:26" ht="12.45">
+    <row r="463" spans="1:26" ht="12.5">
       <c r="A463" s="1"/>
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
@@ -11316,7 +11318,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" spans="1:26" ht="12.45">
+    <row r="464" spans="1:26" ht="12.5">
       <c r="A464" s="1"/>
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
@@ -11328,7 +11330,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" spans="1:26" ht="12.45">
+    <row r="465" spans="1:26" ht="12.5">
       <c r="A465" s="1"/>
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
@@ -11340,7 +11342,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" spans="1:26" ht="12.45">
+    <row r="466" spans="1:26" ht="12.5">
       <c r="A466" s="1"/>
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
@@ -11352,7 +11354,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" spans="1:26" ht="12.45">
+    <row r="467" spans="1:26" ht="12.5">
       <c r="A467" s="1"/>
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
@@ -11364,7 +11366,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" spans="1:26" ht="12.45">
+    <row r="468" spans="1:26" ht="12.5">
       <c r="A468" s="1"/>
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
@@ -11376,7 +11378,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" spans="1:26" ht="12.45">
+    <row r="469" spans="1:26" ht="12.5">
       <c r="A469" s="1"/>
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
@@ -11388,7 +11390,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" spans="1:26" ht="12.45">
+    <row r="470" spans="1:26" ht="12.5">
       <c r="A470" s="1"/>
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
@@ -11400,7 +11402,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" spans="1:26" ht="12.45">
+    <row r="471" spans="1:26" ht="12.5">
       <c r="A471" s="1"/>
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
@@ -11412,7 +11414,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" spans="1:26" ht="12.45">
+    <row r="472" spans="1:26" ht="12.5">
       <c r="A472" s="1"/>
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
@@ -11424,7 +11426,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" spans="1:26" ht="12.45">
+    <row r="473" spans="1:26" ht="12.5">
       <c r="A473" s="1"/>
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
@@ -11436,7 +11438,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" spans="1:26" ht="12.45">
+    <row r="474" spans="1:26" ht="12.5">
       <c r="A474" s="1"/>
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
@@ -11448,7 +11450,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" spans="1:26" ht="12.45">
+    <row r="475" spans="1:26" ht="12.5">
       <c r="A475" s="1"/>
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
@@ -11460,7 +11462,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" spans="1:26" ht="12.45">
+    <row r="476" spans="1:26" ht="12.5">
       <c r="A476" s="1"/>
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
@@ -11472,7 +11474,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" spans="1:26" ht="12.45">
+    <row r="477" spans="1:26" ht="12.5">
       <c r="A477" s="1"/>
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
@@ -11484,7 +11486,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" spans="1:26" ht="12.45">
+    <row r="478" spans="1:26" ht="12.5">
       <c r="A478" s="1"/>
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
@@ -11496,7 +11498,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" spans="1:26" ht="12.45">
+    <row r="479" spans="1:26" ht="12.5">
       <c r="A479" s="1"/>
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
@@ -11508,7 +11510,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" spans="1:26" ht="12.45">
+    <row r="480" spans="1:26" ht="12.5">
       <c r="A480" s="1"/>
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
@@ -11520,7 +11522,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" spans="1:26" ht="12.45">
+    <row r="481" spans="1:26" ht="12.5">
       <c r="A481" s="1"/>
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
@@ -11532,7 +11534,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" spans="1:26" ht="12.45">
+    <row r="482" spans="1:26" ht="12.5">
       <c r="A482" s="1"/>
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
@@ -11544,7 +11546,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" spans="1:26" ht="12.45">
+    <row r="483" spans="1:26" ht="12.5">
       <c r="A483" s="1"/>
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
@@ -11556,7 +11558,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" spans="1:26" ht="12.45">
+    <row r="484" spans="1:26" ht="12.5">
       <c r="A484" s="1"/>
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
@@ -11568,7 +11570,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" spans="1:26" ht="12.45">
+    <row r="485" spans="1:26" ht="12.5">
       <c r="A485" s="1"/>
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
@@ -11580,7 +11582,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" spans="1:26" ht="12.45">
+    <row r="486" spans="1:26" ht="12.5">
       <c r="A486" s="1"/>
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
@@ -11592,7 +11594,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" spans="1:26" ht="12.45">
+    <row r="487" spans="1:26" ht="12.5">
       <c r="A487" s="1"/>
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
@@ -11604,7 +11606,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" spans="1:26" ht="12.45">
+    <row r="488" spans="1:26" ht="12.5">
       <c r="A488" s="1"/>
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
@@ -11616,7 +11618,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" spans="1:26" ht="12.45">
+    <row r="489" spans="1:26" ht="12.5">
       <c r="A489" s="1"/>
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
@@ -11628,7 +11630,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" spans="1:26" ht="12.45">
+    <row r="490" spans="1:26" ht="12.5">
       <c r="A490" s="1"/>
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
@@ -11640,7 +11642,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" spans="1:26" ht="12.45">
+    <row r="491" spans="1:26" ht="12.5">
       <c r="A491" s="1"/>
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
@@ -11652,7 +11654,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" spans="1:26" ht="12.45">
+    <row r="492" spans="1:26" ht="12.5">
       <c r="A492" s="1"/>
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
@@ -11664,7 +11666,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" spans="1:26" ht="12.45">
+    <row r="493" spans="1:26" ht="12.5">
       <c r="A493" s="1"/>
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
@@ -11676,7 +11678,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" spans="1:26" ht="12.45">
+    <row r="494" spans="1:26" ht="12.5">
       <c r="A494" s="1"/>
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
@@ -11688,7 +11690,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" spans="1:26" ht="12.45">
+    <row r="495" spans="1:26" ht="12.5">
       <c r="A495" s="1"/>
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
@@ -11700,7 +11702,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" spans="1:26" ht="12.45">
+    <row r="496" spans="1:26" ht="12.5">
       <c r="A496" s="1"/>
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
@@ -11712,7 +11714,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" spans="1:26" ht="12.45">
+    <row r="497" spans="1:26" ht="12.5">
       <c r="A497" s="1"/>
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
@@ -11724,7 +11726,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" spans="1:26" ht="12.45">
+    <row r="498" spans="1:26" ht="12.5">
       <c r="A498" s="1"/>
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
@@ -11736,7 +11738,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" spans="1:26" ht="12.45">
+    <row r="499" spans="1:26" ht="12.5">
       <c r="A499" s="1"/>
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
@@ -11748,7 +11750,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" spans="1:26" ht="12.45">
+    <row r="500" spans="1:26" ht="12.5">
       <c r="A500" s="1"/>
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
@@ -11760,7 +11762,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" spans="1:26" ht="12.45">
+    <row r="501" spans="1:26" ht="12.5">
       <c r="A501" s="1"/>
       <c r="R501" s="1"/>
       <c r="S501" s="1"/>
@@ -11772,7 +11774,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" spans="1:26" ht="12.45">
+    <row r="502" spans="1:26" ht="12.5">
       <c r="A502" s="1"/>
       <c r="R502" s="1"/>
       <c r="S502" s="1"/>
@@ -11784,7 +11786,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" spans="1:26" ht="12.45">
+    <row r="503" spans="1:26" ht="12.5">
       <c r="A503" s="1"/>
       <c r="R503" s="1"/>
       <c r="S503" s="1"/>
@@ -11796,7 +11798,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" spans="1:26" ht="12.45">
+    <row r="504" spans="1:26" ht="12.5">
       <c r="A504" s="1"/>
       <c r="R504" s="1"/>
       <c r="S504" s="1"/>
@@ -11808,7 +11810,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" spans="1:26" ht="12.45">
+    <row r="505" spans="1:26" ht="12.5">
       <c r="A505" s="1"/>
       <c r="R505" s="1"/>
       <c r="S505" s="1"/>
@@ -11820,7 +11822,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" spans="1:26" ht="12.45">
+    <row r="506" spans="1:26" ht="12.5">
       <c r="A506" s="1"/>
       <c r="R506" s="1"/>
       <c r="S506" s="1"/>
@@ -11832,7 +11834,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" spans="1:26" ht="12.45">
+    <row r="507" spans="1:26" ht="12.5">
       <c r="A507" s="1"/>
       <c r="R507" s="1"/>
       <c r="S507" s="1"/>
@@ -11844,7 +11846,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" spans="1:26" ht="12.45">
+    <row r="508" spans="1:26" ht="12.5">
       <c r="A508" s="1"/>
       <c r="R508" s="1"/>
       <c r="S508" s="1"/>
@@ -11856,7 +11858,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" spans="1:26" ht="12.45">
+    <row r="509" spans="1:26" ht="12.5">
       <c r="A509" s="1"/>
       <c r="R509" s="1"/>
       <c r="S509" s="1"/>
@@ -11868,7 +11870,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" spans="1:26" ht="12.45">
+    <row r="510" spans="1:26" ht="12.5">
       <c r="A510" s="1"/>
       <c r="R510" s="1"/>
       <c r="S510" s="1"/>
@@ -11880,7 +11882,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" spans="1:26" ht="12.45">
+    <row r="511" spans="1:26" ht="12.5">
       <c r="A511" s="1"/>
       <c r="R511" s="1"/>
       <c r="S511" s="1"/>
@@ -11892,7 +11894,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" spans="1:26" ht="12.45">
+    <row r="512" spans="1:26" ht="12.5">
       <c r="A512" s="1"/>
       <c r="R512" s="1"/>
       <c r="S512" s="1"/>
@@ -11904,7 +11906,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" spans="1:26" ht="12.45">
+    <row r="513" spans="1:26" ht="12.5">
       <c r="A513" s="1"/>
       <c r="R513" s="1"/>
       <c r="S513" s="1"/>
@@ -11916,7 +11918,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" spans="1:26" ht="12.45">
+    <row r="514" spans="1:26" ht="12.5">
       <c r="A514" s="1"/>
       <c r="R514" s="1"/>
       <c r="S514" s="1"/>
@@ -11928,7 +11930,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" spans="1:26" ht="12.45">
+    <row r="515" spans="1:26" ht="12.5">
       <c r="A515" s="1"/>
       <c r="R515" s="1"/>
       <c r="S515" s="1"/>
@@ -11940,7 +11942,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" spans="1:26" ht="12.45">
+    <row r="516" spans="1:26" ht="12.5">
       <c r="A516" s="1"/>
       <c r="R516" s="1"/>
       <c r="S516" s="1"/>
@@ -11952,7 +11954,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" spans="1:26" ht="12.45">
+    <row r="517" spans="1:26" ht="12.5">
       <c r="A517" s="1"/>
       <c r="R517" s="1"/>
       <c r="S517" s="1"/>
@@ -11964,7 +11966,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" spans="1:26" ht="12.45">
+    <row r="518" spans="1:26" ht="12.5">
       <c r="A518" s="1"/>
       <c r="R518" s="1"/>
       <c r="S518" s="1"/>
@@ -11976,7 +11978,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" spans="1:26" ht="12.45">
+    <row r="519" spans="1:26" ht="12.5">
       <c r="A519" s="1"/>
       <c r="R519" s="1"/>
       <c r="S519" s="1"/>
@@ -11988,7 +11990,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" spans="1:26" ht="12.45">
+    <row r="520" spans="1:26" ht="12.5">
       <c r="A520" s="1"/>
       <c r="R520" s="1"/>
       <c r="S520" s="1"/>
@@ -12000,7 +12002,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" spans="1:26" ht="12.45">
+    <row r="521" spans="1:26" ht="12.5">
       <c r="A521" s="1"/>
       <c r="R521" s="1"/>
       <c r="S521" s="1"/>
@@ -12012,7 +12014,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" spans="1:26" ht="12.45">
+    <row r="522" spans="1:26" ht="12.5">
       <c r="A522" s="1"/>
       <c r="R522" s="1"/>
       <c r="S522" s="1"/>
@@ -12024,7 +12026,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" spans="1:26" ht="12.45">
+    <row r="523" spans="1:26" ht="12.5">
       <c r="A523" s="1"/>
       <c r="R523" s="1"/>
       <c r="S523" s="1"/>
@@ -12036,7 +12038,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" spans="1:26" ht="12.45">
+    <row r="524" spans="1:26" ht="12.5">
       <c r="A524" s="1"/>
       <c r="R524" s="1"/>
       <c r="S524" s="1"/>
@@ -12048,7 +12050,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" spans="1:26" ht="12.45">
+    <row r="525" spans="1:26" ht="12.5">
       <c r="A525" s="1"/>
       <c r="R525" s="1"/>
       <c r="S525" s="1"/>
@@ -12060,7 +12062,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" spans="1:26" ht="12.45">
+    <row r="526" spans="1:26" ht="12.5">
       <c r="A526" s="1"/>
       <c r="R526" s="1"/>
       <c r="S526" s="1"/>
@@ -12072,7 +12074,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" spans="1:26" ht="12.45">
+    <row r="527" spans="1:26" ht="12.5">
       <c r="A527" s="1"/>
       <c r="R527" s="1"/>
       <c r="S527" s="1"/>
@@ -12084,7 +12086,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" spans="1:26" ht="12.45">
+    <row r="528" spans="1:26" ht="12.5">
       <c r="A528" s="1"/>
       <c r="R528" s="1"/>
       <c r="S528" s="1"/>
@@ -12096,7 +12098,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" spans="1:26" ht="12.45">
+    <row r="529" spans="1:26" ht="12.5">
       <c r="A529" s="1"/>
       <c r="R529" s="1"/>
       <c r="S529" s="1"/>
@@ -12108,7 +12110,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" spans="1:26" ht="12.45">
+    <row r="530" spans="1:26" ht="12.5">
       <c r="A530" s="1"/>
       <c r="R530" s="1"/>
       <c r="S530" s="1"/>
@@ -12120,7 +12122,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" spans="1:26" ht="12.45">
+    <row r="531" spans="1:26" ht="12.5">
       <c r="A531" s="1"/>
       <c r="R531" s="1"/>
       <c r="S531" s="1"/>
@@ -12132,7 +12134,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" spans="1:26" ht="12.45">
+    <row r="532" spans="1:26" ht="12.5">
       <c r="A532" s="1"/>
       <c r="R532" s="1"/>
       <c r="S532" s="1"/>
@@ -12144,7 +12146,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" spans="1:26" ht="12.45">
+    <row r="533" spans="1:26" ht="12.5">
       <c r="A533" s="1"/>
       <c r="R533" s="1"/>
       <c r="S533" s="1"/>
@@ -12156,7 +12158,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" spans="1:26" ht="12.45">
+    <row r="534" spans="1:26" ht="12.5">
       <c r="A534" s="1"/>
       <c r="R534" s="1"/>
       <c r="S534" s="1"/>
@@ -12168,7 +12170,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" spans="1:26" ht="12.45">
+    <row r="535" spans="1:26" ht="12.5">
       <c r="A535" s="1"/>
       <c r="R535" s="1"/>
       <c r="S535" s="1"/>
@@ -12180,7 +12182,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" spans="1:26" ht="12.45">
+    <row r="536" spans="1:26" ht="12.5">
       <c r="A536" s="1"/>
       <c r="R536" s="1"/>
       <c r="S536" s="1"/>
@@ -12192,7 +12194,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" spans="1:26" ht="12.45">
+    <row r="537" spans="1:26" ht="12.5">
       <c r="A537" s="1"/>
       <c r="R537" s="1"/>
       <c r="S537" s="1"/>
@@ -12204,7 +12206,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" spans="1:26" ht="12.45">
+    <row r="538" spans="1:26" ht="12.5">
       <c r="A538" s="1"/>
       <c r="R538" s="1"/>
       <c r="S538" s="1"/>
@@ -12216,7 +12218,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" spans="1:26" ht="12.45">
+    <row r="539" spans="1:26" ht="12.5">
       <c r="A539" s="1"/>
       <c r="R539" s="1"/>
       <c r="S539" s="1"/>
@@ -12228,7 +12230,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" spans="1:26" ht="12.45">
+    <row r="540" spans="1:26" ht="12.5">
       <c r="A540" s="1"/>
       <c r="R540" s="1"/>
       <c r="S540" s="1"/>
@@ -12240,7 +12242,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" spans="1:26" ht="12.45">
+    <row r="541" spans="1:26" ht="12.5">
       <c r="A541" s="1"/>
       <c r="R541" s="1"/>
       <c r="S541" s="1"/>
@@ -12252,7 +12254,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" spans="1:26" ht="12.45">
+    <row r="542" spans="1:26" ht="12.5">
       <c r="A542" s="1"/>
       <c r="R542" s="1"/>
       <c r="S542" s="1"/>
@@ -12264,7 +12266,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" spans="1:26" ht="12.45">
+    <row r="543" spans="1:26" ht="12.5">
       <c r="A543" s="1"/>
       <c r="R543" s="1"/>
       <c r="S543" s="1"/>
@@ -12276,7 +12278,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" spans="1:26" ht="12.45">
+    <row r="544" spans="1:26" ht="12.5">
       <c r="A544" s="1"/>
       <c r="R544" s="1"/>
       <c r="S544" s="1"/>
@@ -12288,7 +12290,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" spans="1:26" ht="12.45">
+    <row r="545" spans="1:26" ht="12.5">
       <c r="A545" s="1"/>
       <c r="R545" s="1"/>
       <c r="S545" s="1"/>
@@ -12300,7 +12302,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" spans="1:26" ht="12.45">
+    <row r="546" spans="1:26" ht="12.5">
       <c r="A546" s="1"/>
       <c r="R546" s="1"/>
       <c r="S546" s="1"/>
@@ -12312,7 +12314,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" spans="1:26" ht="12.45">
+    <row r="547" spans="1:26" ht="12.5">
       <c r="A547" s="1"/>
       <c r="R547" s="1"/>
       <c r="S547" s="1"/>
@@ -12324,7 +12326,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" spans="1:26" ht="12.45">
+    <row r="548" spans="1:26" ht="12.5">
       <c r="A548" s="1"/>
       <c r="R548" s="1"/>
       <c r="S548" s="1"/>
@@ -12336,7 +12338,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" spans="1:26" ht="12.45">
+    <row r="549" spans="1:26" ht="12.5">
       <c r="A549" s="1"/>
       <c r="R549" s="1"/>
       <c r="S549" s="1"/>
@@ -12348,7 +12350,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" spans="1:26" ht="12.45">
+    <row r="550" spans="1:26" ht="12.5">
       <c r="A550" s="1"/>
       <c r="R550" s="1"/>
       <c r="S550" s="1"/>
@@ -12360,7 +12362,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" spans="1:26" ht="12.45">
+    <row r="551" spans="1:26" ht="12.5">
       <c r="A551" s="1"/>
       <c r="R551" s="1"/>
       <c r="S551" s="1"/>
@@ -12372,7 +12374,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" spans="1:26" ht="12.45">
+    <row r="552" spans="1:26" ht="12.5">
       <c r="A552" s="1"/>
       <c r="R552" s="1"/>
       <c r="S552" s="1"/>
@@ -12384,7 +12386,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" spans="1:26" ht="12.45">
+    <row r="553" spans="1:26" ht="12.5">
       <c r="A553" s="1"/>
       <c r="R553" s="1"/>
       <c r="S553" s="1"/>
@@ -12396,7 +12398,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" spans="1:26" ht="12.45">
+    <row r="554" spans="1:26" ht="12.5">
       <c r="A554" s="1"/>
       <c r="R554" s="1"/>
       <c r="S554" s="1"/>
@@ -12408,7 +12410,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" spans="1:26" ht="12.45">
+    <row r="555" spans="1:26" ht="12.5">
       <c r="A555" s="1"/>
       <c r="R555" s="1"/>
       <c r="S555" s="1"/>
@@ -12420,7 +12422,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" spans="1:26" ht="12.45">
+    <row r="556" spans="1:26" ht="12.5">
       <c r="A556" s="1"/>
       <c r="R556" s="1"/>
       <c r="S556" s="1"/>
@@ -12432,7 +12434,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" spans="1:26" ht="12.45">
+    <row r="557" spans="1:26" ht="12.5">
       <c r="A557" s="1"/>
       <c r="R557" s="1"/>
       <c r="S557" s="1"/>
@@ -12444,7 +12446,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" spans="1:26" ht="12.45">
+    <row r="558" spans="1:26" ht="12.5">
       <c r="A558" s="1"/>
       <c r="R558" s="1"/>
       <c r="S558" s="1"/>
@@ -12456,7 +12458,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" spans="1:26" ht="12.45">
+    <row r="559" spans="1:26" ht="12.5">
       <c r="A559" s="1"/>
       <c r="R559" s="1"/>
       <c r="S559" s="1"/>
@@ -12468,7 +12470,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" spans="1:26" ht="12.45">
+    <row r="560" spans="1:26" ht="12.5">
       <c r="A560" s="1"/>
       <c r="R560" s="1"/>
       <c r="S560" s="1"/>
@@ -12480,7 +12482,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" spans="1:26" ht="12.45">
+    <row r="561" spans="1:26" ht="12.5">
       <c r="A561" s="1"/>
       <c r="R561" s="1"/>
       <c r="S561" s="1"/>
@@ -12492,7 +12494,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" spans="1:26" ht="12.45">
+    <row r="562" spans="1:26" ht="12.5">
       <c r="A562" s="1"/>
       <c r="R562" s="1"/>
       <c r="S562" s="1"/>
@@ -12504,7 +12506,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" spans="1:26" ht="12.45">
+    <row r="563" spans="1:26" ht="12.5">
       <c r="A563" s="1"/>
       <c r="R563" s="1"/>
       <c r="S563" s="1"/>
@@ -12516,7 +12518,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" spans="1:26" ht="12.45">
+    <row r="564" spans="1:26" ht="12.5">
       <c r="A564" s="1"/>
       <c r="R564" s="1"/>
       <c r="S564" s="1"/>
@@ -12528,7 +12530,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" spans="1:26" ht="12.45">
+    <row r="565" spans="1:26" ht="12.5">
       <c r="A565" s="1"/>
       <c r="R565" s="1"/>
       <c r="S565" s="1"/>
@@ -12540,7 +12542,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" spans="1:26" ht="12.45">
+    <row r="566" spans="1:26" ht="12.5">
       <c r="A566" s="1"/>
       <c r="R566" s="1"/>
       <c r="S566" s="1"/>
@@ -12552,7 +12554,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" spans="1:26" ht="12.45">
+    <row r="567" spans="1:26" ht="12.5">
       <c r="A567" s="1"/>
       <c r="R567" s="1"/>
       <c r="S567" s="1"/>
@@ -12564,7 +12566,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" spans="1:26" ht="12.45">
+    <row r="568" spans="1:26" ht="12.5">
       <c r="A568" s="1"/>
       <c r="R568" s="1"/>
       <c r="S568" s="1"/>
@@ -12576,7 +12578,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" spans="1:26" ht="12.45">
+    <row r="569" spans="1:26" ht="12.5">
       <c r="A569" s="1"/>
       <c r="R569" s="1"/>
       <c r="S569" s="1"/>
@@ -12588,7 +12590,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" spans="1:26" ht="12.45">
+    <row r="570" spans="1:26" ht="12.5">
       <c r="A570" s="1"/>
       <c r="R570" s="1"/>
       <c r="S570" s="1"/>
@@ -12600,7 +12602,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" spans="1:26" ht="12.45">
+    <row r="571" spans="1:26" ht="12.5">
       <c r="A571" s="1"/>
       <c r="R571" s="1"/>
       <c r="S571" s="1"/>
@@ -12612,7 +12614,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" spans="1:26" ht="12.45">
+    <row r="572" spans="1:26" ht="12.5">
       <c r="A572" s="1"/>
       <c r="R572" s="1"/>
       <c r="S572" s="1"/>
@@ -12624,7 +12626,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" spans="1:26" ht="12.45">
+    <row r="573" spans="1:26" ht="12.5">
       <c r="A573" s="1"/>
       <c r="R573" s="1"/>
       <c r="S573" s="1"/>
@@ -12636,7 +12638,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" spans="1:26" ht="12.45">
+    <row r="574" spans="1:26" ht="12.5">
       <c r="A574" s="1"/>
       <c r="R574" s="1"/>
       <c r="S574" s="1"/>
@@ -12648,7 +12650,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" spans="1:26" ht="12.45">
+    <row r="575" spans="1:26" ht="12.5">
       <c r="A575" s="1"/>
       <c r="R575" s="1"/>
       <c r="S575" s="1"/>
@@ -12660,7 +12662,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" spans="1:26" ht="12.45">
+    <row r="576" spans="1:26" ht="12.5">
       <c r="A576" s="1"/>
       <c r="R576" s="1"/>
       <c r="S576" s="1"/>
@@ -12672,7 +12674,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" spans="1:26" ht="12.45">
+    <row r="577" spans="1:26" ht="12.5">
       <c r="A577" s="1"/>
       <c r="R577" s="1"/>
       <c r="S577" s="1"/>
@@ -12684,7 +12686,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" spans="1:26" ht="12.45">
+    <row r="578" spans="1:26" ht="12.5">
       <c r="A578" s="1"/>
       <c r="R578" s="1"/>
       <c r="S578" s="1"/>
@@ -12696,7 +12698,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" spans="1:26" ht="12.45">
+    <row r="579" spans="1:26" ht="12.5">
       <c r="A579" s="1"/>
       <c r="R579" s="1"/>
       <c r="S579" s="1"/>
@@ -12708,7 +12710,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" spans="1:26" ht="12.45">
+    <row r="580" spans="1:26" ht="12.5">
       <c r="A580" s="1"/>
       <c r="R580" s="1"/>
       <c r="S580" s="1"/>
@@ -12720,7 +12722,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" spans="1:26" ht="12.45">
+    <row r="581" spans="1:26" ht="12.5">
       <c r="A581" s="1"/>
       <c r="R581" s="1"/>
       <c r="S581" s="1"/>
@@ -12732,7 +12734,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" spans="1:26" ht="12.45">
+    <row r="582" spans="1:26" ht="12.5">
       <c r="A582" s="1"/>
       <c r="R582" s="1"/>
       <c r="S582" s="1"/>
@@ -12744,7 +12746,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" spans="1:26" ht="12.45">
+    <row r="583" spans="1:26" ht="12.5">
       <c r="A583" s="1"/>
       <c r="R583" s="1"/>
       <c r="S583" s="1"/>
@@ -12756,7 +12758,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" spans="1:26" ht="12.45">
+    <row r="584" spans="1:26" ht="12.5">
       <c r="A584" s="1"/>
       <c r="R584" s="1"/>
       <c r="S584" s="1"/>
@@ -12768,7 +12770,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" spans="1:26" ht="12.45">
+    <row r="585" spans="1:26" ht="12.5">
       <c r="A585" s="1"/>
       <c r="R585" s="1"/>
       <c r="S585" s="1"/>
@@ -12780,7 +12782,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" spans="1:26" ht="12.45">
+    <row r="586" spans="1:26" ht="12.5">
       <c r="A586" s="1"/>
       <c r="R586" s="1"/>
       <c r="S586" s="1"/>
@@ -12792,7 +12794,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" spans="1:26" ht="12.45">
+    <row r="587" spans="1:26" ht="12.5">
       <c r="A587" s="1"/>
       <c r="R587" s="1"/>
       <c r="S587" s="1"/>
@@ -12804,7 +12806,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" spans="1:26" ht="12.45">
+    <row r="588" spans="1:26" ht="12.5">
       <c r="A588" s="1"/>
       <c r="R588" s="1"/>
       <c r="S588" s="1"/>
@@ -12816,7 +12818,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" spans="1:26" ht="12.45">
+    <row r="589" spans="1:26" ht="12.5">
       <c r="A589" s="1"/>
       <c r="R589" s="1"/>
       <c r="S589" s="1"/>
@@ -12828,7 +12830,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" spans="1:26" ht="12.45">
+    <row r="590" spans="1:26" ht="12.5">
       <c r="A590" s="1"/>
       <c r="R590" s="1"/>
       <c r="S590" s="1"/>
@@ -12840,7 +12842,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" spans="1:26" ht="12.45">
+    <row r="591" spans="1:26" ht="12.5">
       <c r="A591" s="1"/>
       <c r="R591" s="1"/>
       <c r="S591" s="1"/>
@@ -12852,7 +12854,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" spans="1:26" ht="12.45">
+    <row r="592" spans="1:26" ht="12.5">
       <c r="A592" s="1"/>
       <c r="R592" s="1"/>
       <c r="S592" s="1"/>
@@ -12864,7 +12866,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" spans="1:26" ht="12.45">
+    <row r="593" spans="1:26" ht="12.5">
       <c r="A593" s="1"/>
       <c r="R593" s="1"/>
       <c r="S593" s="1"/>
@@ -12876,7 +12878,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" spans="1:26" ht="12.45">
+    <row r="594" spans="1:26" ht="12.5">
       <c r="A594" s="1"/>
       <c r="R594" s="1"/>
       <c r="S594" s="1"/>
@@ -12888,7 +12890,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" spans="1:26" ht="12.45">
+    <row r="595" spans="1:26" ht="12.5">
       <c r="A595" s="1"/>
       <c r="R595" s="1"/>
       <c r="S595" s="1"/>
@@ -12900,7 +12902,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" spans="1:26" ht="12.45">
+    <row r="596" spans="1:26" ht="12.5">
       <c r="A596" s="1"/>
       <c r="R596" s="1"/>
       <c r="S596" s="1"/>
@@ -12912,7 +12914,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" spans="1:26" ht="12.45">
+    <row r="597" spans="1:26" ht="12.5">
       <c r="A597" s="1"/>
       <c r="R597" s="1"/>
       <c r="S597" s="1"/>
@@ -12924,7 +12926,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" spans="1:26" ht="12.45">
+    <row r="598" spans="1:26" ht="12.5">
       <c r="A598" s="1"/>
       <c r="R598" s="1"/>
       <c r="S598" s="1"/>
@@ -12936,7 +12938,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" spans="1:26" ht="12.45">
+    <row r="599" spans="1:26" ht="12.5">
       <c r="A599" s="1"/>
       <c r="R599" s="1"/>
       <c r="S599" s="1"/>
@@ -12948,7 +12950,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" spans="1:26" ht="12.45">
+    <row r="600" spans="1:26" ht="12.5">
       <c r="A600" s="1"/>
       <c r="R600" s="1"/>
       <c r="S600" s="1"/>
@@ -12960,7 +12962,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" spans="1:26" ht="12.45">
+    <row r="601" spans="1:26" ht="12.5">
       <c r="A601" s="1"/>
       <c r="R601" s="1"/>
       <c r="S601" s="1"/>
@@ -12972,7 +12974,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" spans="1:26" ht="12.45">
+    <row r="602" spans="1:26" ht="12.5">
       <c r="A602" s="1"/>
       <c r="R602" s="1"/>
       <c r="S602" s="1"/>
@@ -12984,7 +12986,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" spans="1:26" ht="12.45">
+    <row r="603" spans="1:26" ht="12.5">
       <c r="A603" s="1"/>
       <c r="R603" s="1"/>
       <c r="S603" s="1"/>
@@ -12996,7 +12998,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" spans="1:26" ht="12.45">
+    <row r="604" spans="1:26" ht="12.5">
       <c r="A604" s="1"/>
       <c r="R604" s="1"/>
       <c r="S604" s="1"/>
@@ -13008,7 +13010,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" spans="1:26" ht="12.45">
+    <row r="605" spans="1:26" ht="12.5">
       <c r="A605" s="1"/>
       <c r="R605" s="1"/>
       <c r="S605" s="1"/>
@@ -13020,7 +13022,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" spans="1:26" ht="12.45">
+    <row r="606" spans="1:26" ht="12.5">
       <c r="A606" s="1"/>
       <c r="R606" s="1"/>
       <c r="S606" s="1"/>
@@ -13032,7 +13034,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" spans="1:26" ht="12.45">
+    <row r="607" spans="1:26" ht="12.5">
       <c r="A607" s="1"/>
       <c r="R607" s="1"/>
       <c r="S607" s="1"/>
@@ -13044,7 +13046,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" spans="1:26" ht="12.45">
+    <row r="608" spans="1:26" ht="12.5">
       <c r="A608" s="1"/>
       <c r="R608" s="1"/>
       <c r="S608" s="1"/>
@@ -13056,7 +13058,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" spans="1:26" ht="12.45">
+    <row r="609" spans="1:26" ht="12.5">
       <c r="A609" s="1"/>
       <c r="R609" s="1"/>
       <c r="S609" s="1"/>
@@ -13068,7 +13070,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" spans="1:26" ht="12.45">
+    <row r="610" spans="1:26" ht="12.5">
       <c r="A610" s="1"/>
       <c r="R610" s="1"/>
       <c r="S610" s="1"/>
@@ -13080,7 +13082,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" spans="1:26" ht="12.45">
+    <row r="611" spans="1:26" ht="12.5">
       <c r="A611" s="1"/>
       <c r="R611" s="1"/>
       <c r="S611" s="1"/>
@@ -13092,7 +13094,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" spans="1:26" ht="12.45">
+    <row r="612" spans="1:26" ht="12.5">
       <c r="A612" s="1"/>
       <c r="R612" s="1"/>
       <c r="S612" s="1"/>
@@ -13104,7 +13106,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" spans="1:26" ht="12.45">
+    <row r="613" spans="1:26" ht="12.5">
       <c r="A613" s="1"/>
       <c r="R613" s="1"/>
       <c r="S613" s="1"/>
@@ -13116,7 +13118,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" spans="1:26" ht="12.45">
+    <row r="614" spans="1:26" ht="12.5">
       <c r="A614" s="1"/>
       <c r="R614" s="1"/>
       <c r="S614" s="1"/>
@@ -13128,7 +13130,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" spans="1:26" ht="12.45">
+    <row r="615" spans="1:26" ht="12.5">
       <c r="A615" s="1"/>
       <c r="R615" s="1"/>
       <c r="S615" s="1"/>
@@ -13140,7 +13142,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" spans="1:26" ht="12.45">
+    <row r="616" spans="1:26" ht="12.5">
       <c r="A616" s="1"/>
       <c r="R616" s="1"/>
       <c r="S616" s="1"/>
@@ -13152,7 +13154,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" spans="1:26" ht="12.45">
+    <row r="617" spans="1:26" ht="12.5">
       <c r="A617" s="1"/>
       <c r="R617" s="1"/>
       <c r="S617" s="1"/>
@@ -13164,7 +13166,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" spans="1:26" ht="12.45">
+    <row r="618" spans="1:26" ht="12.5">
       <c r="A618" s="1"/>
       <c r="R618" s="1"/>
       <c r="S618" s="1"/>
@@ -13176,7 +13178,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" spans="1:26" ht="12.45">
+    <row r="619" spans="1:26" ht="12.5">
       <c r="A619" s="1"/>
       <c r="R619" s="1"/>
       <c r="S619" s="1"/>
@@ -13188,7 +13190,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" spans="1:26" ht="12.45">
+    <row r="620" spans="1:26" ht="12.5">
       <c r="A620" s="1"/>
       <c r="R620" s="1"/>
       <c r="S620" s="1"/>
@@ -13200,7 +13202,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" spans="1:26" ht="12.45">
+    <row r="621" spans="1:26" ht="12.5">
       <c r="A621" s="1"/>
       <c r="R621" s="1"/>
       <c r="S621" s="1"/>
@@ -13212,7 +13214,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" spans="1:26" ht="12.45">
+    <row r="622" spans="1:26" ht="12.5">
       <c r="A622" s="1"/>
       <c r="R622" s="1"/>
       <c r="S622" s="1"/>
@@ -13224,7 +13226,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" spans="1:26" ht="12.45">
+    <row r="623" spans="1:26" ht="12.5">
       <c r="A623" s="1"/>
       <c r="R623" s="1"/>
       <c r="S623" s="1"/>
@@ -13236,7 +13238,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" spans="1:26" ht="12.45">
+    <row r="624" spans="1:26" ht="12.5">
       <c r="A624" s="1"/>
       <c r="R624" s="1"/>
       <c r="S624" s="1"/>
@@ -13248,7 +13250,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" spans="1:26" ht="12.45">
+    <row r="625" spans="1:26" ht="12.5">
       <c r="A625" s="1"/>
       <c r="R625" s="1"/>
       <c r="S625" s="1"/>
@@ -13260,7 +13262,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" spans="1:26" ht="12.45">
+    <row r="626" spans="1:26" ht="12.5">
       <c r="A626" s="1"/>
       <c r="R626" s="1"/>
       <c r="S626" s="1"/>
@@ -13272,7 +13274,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" spans="1:26" ht="12.45">
+    <row r="627" spans="1:26" ht="12.5">
       <c r="A627" s="1"/>
       <c r="R627" s="1"/>
       <c r="S627" s="1"/>
@@ -13284,7 +13286,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" spans="1:26" ht="12.45">
+    <row r="628" spans="1:26" ht="12.5">
       <c r="A628" s="1"/>
       <c r="R628" s="1"/>
       <c r="S628" s="1"/>
@@ -13296,7 +13298,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" spans="1:26" ht="12.45">
+    <row r="629" spans="1:26" ht="12.5">
       <c r="A629" s="1"/>
       <c r="R629" s="1"/>
       <c r="S629" s="1"/>
@@ -13308,7 +13310,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" spans="1:26" ht="12.45">
+    <row r="630" spans="1:26" ht="12.5">
       <c r="A630" s="1"/>
       <c r="R630" s="1"/>
       <c r="S630" s="1"/>
@@ -13320,7 +13322,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" spans="1:26" ht="12.45">
+    <row r="631" spans="1:26" ht="12.5">
       <c r="A631" s="1"/>
       <c r="R631" s="1"/>
       <c r="S631" s="1"/>
@@ -13332,7 +13334,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" spans="1:26" ht="12.45">
+    <row r="632" spans="1:26" ht="12.5">
       <c r="A632" s="1"/>
       <c r="R632" s="1"/>
       <c r="S632" s="1"/>
@@ -13344,7 +13346,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" spans="1:26" ht="12.45">
+    <row r="633" spans="1:26" ht="12.5">
       <c r="A633" s="1"/>
       <c r="R633" s="1"/>
       <c r="S633" s="1"/>
@@ -13356,7 +13358,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" spans="1:26" ht="12.45">
+    <row r="634" spans="1:26" ht="12.5">
       <c r="A634" s="1"/>
       <c r="R634" s="1"/>
       <c r="S634" s="1"/>
@@ -13368,7 +13370,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" spans="1:26" ht="12.45">
+    <row r="635" spans="1:26" ht="12.5">
       <c r="A635" s="1"/>
       <c r="R635" s="1"/>
       <c r="S635" s="1"/>
@@ -13380,7 +13382,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" spans="1:26" ht="12.45">
+    <row r="636" spans="1:26" ht="12.5">
       <c r="A636" s="1"/>
       <c r="R636" s="1"/>
       <c r="S636" s="1"/>
@@ -13392,7 +13394,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" spans="1:26" ht="12.45">
+    <row r="637" spans="1:26" ht="12.5">
       <c r="A637" s="1"/>
       <c r="R637" s="1"/>
       <c r="S637" s="1"/>
@@ -13404,7 +13406,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" spans="1:26" ht="12.45">
+    <row r="638" spans="1:26" ht="12.5">
       <c r="A638" s="1"/>
       <c r="R638" s="1"/>
       <c r="S638" s="1"/>
@@ -13416,7 +13418,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" spans="1:26" ht="12.45">
+    <row r="639" spans="1:26" ht="12.5">
       <c r="A639" s="1"/>
       <c r="R639" s="1"/>
       <c r="S639" s="1"/>
@@ -13428,7 +13430,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" spans="1:26" ht="12.45">
+    <row r="640" spans="1:26" ht="12.5">
       <c r="A640" s="1"/>
       <c r="R640" s="1"/>
       <c r="S640" s="1"/>
@@ -13440,7 +13442,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" spans="1:26" ht="12.45">
+    <row r="641" spans="1:26" ht="12.5">
       <c r="A641" s="1"/>
       <c r="R641" s="1"/>
       <c r="S641" s="1"/>
@@ -13452,7 +13454,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" spans="1:26" ht="12.45">
+    <row r="642" spans="1:26" ht="12.5">
       <c r="A642" s="1"/>
       <c r="R642" s="1"/>
       <c r="S642" s="1"/>
@@ -13464,7 +13466,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" spans="1:26" ht="12.45">
+    <row r="643" spans="1:26" ht="12.5">
       <c r="A643" s="1"/>
       <c r="R643" s="1"/>
       <c r="S643" s="1"/>
@@ -13476,7 +13478,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" spans="1:26" ht="12.45">
+    <row r="644" spans="1:26" ht="12.5">
       <c r="A644" s="1"/>
       <c r="R644" s="1"/>
       <c r="S644" s="1"/>
@@ -13488,7 +13490,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" spans="1:26" ht="12.45">
+    <row r="645" spans="1:26" ht="12.5">
       <c r="A645" s="1"/>
       <c r="R645" s="1"/>
       <c r="S645" s="1"/>
@@ -13500,7 +13502,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" spans="1:26" ht="12.45">
+    <row r="646" spans="1:26" ht="12.5">
       <c r="A646" s="1"/>
       <c r="R646" s="1"/>
       <c r="S646" s="1"/>
@@ -13512,7 +13514,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" spans="1:26" ht="12.45">
+    <row r="647" spans="1:26" ht="12.5">
       <c r="A647" s="1"/>
       <c r="R647" s="1"/>
       <c r="S647" s="1"/>
@@ -13524,7 +13526,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" spans="1:26" ht="12.45">
+    <row r="648" spans="1:26" ht="12.5">
       <c r="A648" s="1"/>
       <c r="R648" s="1"/>
       <c r="S648" s="1"/>
@@ -13536,7 +13538,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" spans="1:26" ht="12.45">
+    <row r="649" spans="1:26" ht="12.5">
       <c r="A649" s="1"/>
       <c r="R649" s="1"/>
       <c r="S649" s="1"/>
@@ -13548,7 +13550,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" spans="1:26" ht="12.45">
+    <row r="650" spans="1:26" ht="12.5">
       <c r="A650" s="1"/>
       <c r="R650" s="1"/>
       <c r="S650" s="1"/>
@@ -13560,7 +13562,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" spans="1:26" ht="12.45">
+    <row r="651" spans="1:26" ht="12.5">
       <c r="A651" s="1"/>
       <c r="R651" s="1"/>
       <c r="S651" s="1"/>
@@ -13572,7 +13574,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" spans="1:26" ht="12.45">
+    <row r="652" spans="1:26" ht="12.5">
       <c r="A652" s="1"/>
       <c r="R652" s="1"/>
       <c r="S652" s="1"/>
@@ -13584,7 +13586,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" spans="1:26" ht="12.45">
+    <row r="653" spans="1:26" ht="12.5">
       <c r="A653" s="1"/>
       <c r="R653" s="1"/>
       <c r="S653" s="1"/>
@@ -13596,7 +13598,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" spans="1:26" ht="12.45">
+    <row r="654" spans="1:26" ht="12.5">
       <c r="A654" s="1"/>
       <c r="R654" s="1"/>
       <c r="S654" s="1"/>
@@ -13608,7 +13610,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" spans="1:26" ht="12.45">
+    <row r="655" spans="1:26" ht="12.5">
       <c r="A655" s="1"/>
       <c r="R655" s="1"/>
       <c r="S655" s="1"/>
@@ -13620,7 +13622,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" spans="1:26" ht="12.45">
+    <row r="656" spans="1:26" ht="12.5">
       <c r="A656" s="1"/>
       <c r="R656" s="1"/>
       <c r="S656" s="1"/>
@@ -13632,7 +13634,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" spans="1:26" ht="12.45">
+    <row r="657" spans="1:26" ht="12.5">
       <c r="A657" s="1"/>
       <c r="R657" s="1"/>
       <c r="S657" s="1"/>
@@ -13644,7 +13646,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" spans="1:26" ht="12.45">
+    <row r="658" spans="1:26" ht="12.5">
       <c r="A658" s="1"/>
       <c r="R658" s="1"/>
       <c r="S658" s="1"/>
@@ -13656,7 +13658,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" spans="1:26" ht="12.45">
+    <row r="659" spans="1:26" ht="12.5">
       <c r="A659" s="1"/>
       <c r="R659" s="1"/>
       <c r="S659" s="1"/>
@@ -13668,7 +13670,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" spans="1:26" ht="12.45">
+    <row r="660" spans="1:26" ht="12.5">
       <c r="A660" s="1"/>
       <c r="R660" s="1"/>
       <c r="S660" s="1"/>
@@ -13680,7 +13682,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" spans="1:26" ht="12.45">
+    <row r="661" spans="1:26" ht="12.5">
       <c r="A661" s="1"/>
       <c r="R661" s="1"/>
       <c r="S661" s="1"/>
@@ -13692,7 +13694,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" spans="1:26" ht="12.45">
+    <row r="662" spans="1:26" ht="12.5">
       <c r="A662" s="1"/>
       <c r="R662" s="1"/>
       <c r="S662" s="1"/>
@@ -13704,7 +13706,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" spans="1:26" ht="12.45">
+    <row r="663" spans="1:26" ht="12.5">
       <c r="A663" s="1"/>
       <c r="R663" s="1"/>
       <c r="S663" s="1"/>
@@ -13716,7 +13718,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" spans="1:26" ht="12.45">
+    <row r="664" spans="1:26" ht="12.5">
       <c r="A664" s="1"/>
       <c r="R664" s="1"/>
       <c r="S664" s="1"/>
@@ -13728,7 +13730,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" spans="1:26" ht="12.45">
+    <row r="665" spans="1:26" ht="12.5">
       <c r="A665" s="1"/>
       <c r="R665" s="1"/>
       <c r="S665" s="1"/>
@@ -13740,7 +13742,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" spans="1:26" ht="12.45">
+    <row r="666" spans="1:26" ht="12.5">
       <c r="A666" s="1"/>
       <c r="R666" s="1"/>
       <c r="S666" s="1"/>
@@ -13752,7 +13754,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" spans="1:26" ht="12.45">
+    <row r="667" spans="1:26" ht="12.5">
       <c r="A667" s="1"/>
       <c r="R667" s="1"/>
       <c r="S667" s="1"/>
@@ -13764,7 +13766,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" spans="1:26" ht="12.45">
+    <row r="668" spans="1:26" ht="12.5">
       <c r="A668" s="1"/>
       <c r="R668" s="1"/>
       <c r="S668" s="1"/>
@@ -13776,7 +13778,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" spans="1:26" ht="12.45">
+    <row r="669" spans="1:26" ht="12.5">
       <c r="A669" s="1"/>
       <c r="R669" s="1"/>
       <c r="S669" s="1"/>
@@ -13788,7 +13790,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" spans="1:26" ht="12.45">
+    <row r="670" spans="1:26" ht="12.5">
       <c r="A670" s="1"/>
       <c r="R670" s="1"/>
       <c r="S670" s="1"/>
@@ -13800,7 +13802,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" spans="1:26" ht="12.45">
+    <row r="671" spans="1:26" ht="12.5">
       <c r="A671" s="1"/>
       <c r="R671" s="1"/>
       <c r="S671" s="1"/>
@@ -13812,7 +13814,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" spans="1:26" ht="12.45">
+    <row r="672" spans="1:26" ht="12.5">
       <c r="A672" s="1"/>
       <c r="R672" s="1"/>
       <c r="S672" s="1"/>
@@ -13824,7 +13826,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" spans="1:26" ht="12.45">
+    <row r="673" spans="1:26" ht="12.5">
       <c r="A673" s="1"/>
       <c r="R673" s="1"/>
       <c r="S673" s="1"/>
@@ -13836,7 +13838,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" spans="1:26" ht="12.45">
+    <row r="674" spans="1:26" ht="12.5">
       <c r="A674" s="1"/>
       <c r="R674" s="1"/>
       <c r="S674" s="1"/>
@@ -13848,7 +13850,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" spans="1:26" ht="12.45">
+    <row r="675" spans="1:26" ht="12.5">
       <c r="A675" s="1"/>
       <c r="R675" s="1"/>
       <c r="S675" s="1"/>
@@ -13860,7 +13862,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" spans="1:26" ht="12.45">
+    <row r="676" spans="1:26" ht="12.5">
       <c r="A676" s="1"/>
       <c r="R676" s="1"/>
       <c r="S676" s="1"/>
@@ -13872,7 +13874,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" spans="1:26" ht="12.45">
+    <row r="677" spans="1:26" ht="12.5">
       <c r="A677" s="1"/>
       <c r="R677" s="1"/>
       <c r="S677" s="1"/>
@@ -13884,7 +13886,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" spans="1:26" ht="12.45">
+    <row r="678" spans="1:26" ht="12.5">
       <c r="A678" s="1"/>
       <c r="R678" s="1"/>
       <c r="S678" s="1"/>
@@ -13896,7 +13898,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" spans="1:26" ht="12.45">
+    <row r="679" spans="1:26" ht="12.5">
       <c r="A679" s="1"/>
       <c r="R679" s="1"/>
       <c r="S679" s="1"/>
@@ -13908,7 +13910,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" spans="1:26" ht="12.45">
+    <row r="680" spans="1:26" ht="12.5">
       <c r="A680" s="1"/>
       <c r="R680" s="1"/>
       <c r="S680" s="1"/>
@@ -13920,7 +13922,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" spans="1:26" ht="12.45">
+    <row r="681" spans="1:26" ht="12.5">
       <c r="A681" s="1"/>
       <c r="R681" s="1"/>
       <c r="S681" s="1"/>
@@ -13932,7 +13934,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" spans="1:26" ht="12.45">
+    <row r="682" spans="1:26" ht="12.5">
       <c r="A682" s="1"/>
       <c r="R682" s="1"/>
       <c r="S682" s="1"/>
@@ -13944,7 +13946,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" spans="1:26" ht="12.45">
+    <row r="683" spans="1:26" ht="12.5">
       <c r="A683" s="1"/>
       <c r="R683" s="1"/>
       <c r="S683" s="1"/>
@@ -13956,7 +13958,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" spans="1:26" ht="12.45">
+    <row r="684" spans="1:26" ht="12.5">
       <c r="A684" s="1"/>
       <c r="R684" s="1"/>
       <c r="S684" s="1"/>
@@ -13968,7 +13970,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" spans="1:26" ht="12.45">
+    <row r="685" spans="1:26" ht="12.5">
       <c r="A685" s="1"/>
       <c r="R685" s="1"/>
       <c r="S685" s="1"/>
@@ -13980,7 +13982,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" spans="1:26" ht="12.45">
+    <row r="686" spans="1:26" ht="12.5">
       <c r="A686" s="1"/>
       <c r="R686" s="1"/>
       <c r="S686" s="1"/>
@@ -13992,7 +13994,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" spans="1:26" ht="12.45">
+    <row r="687" spans="1:26" ht="12.5">
       <c r="A687" s="1"/>
       <c r="R687" s="1"/>
       <c r="S687" s="1"/>
@@ -14004,7 +14006,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" spans="1:26" ht="12.45">
+    <row r="688" spans="1:26" ht="12.5">
       <c r="A688" s="1"/>
       <c r="R688" s="1"/>
       <c r="S688" s="1"/>
@@ -14016,7 +14018,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" spans="1:26" ht="12.45">
+    <row r="689" spans="1:26" ht="12.5">
       <c r="A689" s="1"/>
       <c r="R689" s="1"/>
       <c r="S689" s="1"/>
@@ -14028,7 +14030,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" spans="1:26" ht="12.45">
+    <row r="690" spans="1:26" ht="12.5">
       <c r="A690" s="1"/>
       <c r="R690" s="1"/>
       <c r="S690" s="1"/>
@@ -14040,7 +14042,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" spans="1:26" ht="12.45">
+    <row r="691" spans="1:26" ht="12.5">
       <c r="A691" s="1"/>
       <c r="R691" s="1"/>
       <c r="S691" s="1"/>
@@ -14052,7 +14054,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" spans="1:26" ht="12.45">
+    <row r="692" spans="1:26" ht="12.5">
       <c r="A692" s="1"/>
       <c r="R692" s="1"/>
       <c r="S692" s="1"/>
@@ -14064,7 +14066,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" spans="1:26" ht="12.45">
+    <row r="693" spans="1:26" ht="12.5">
       <c r="A693" s="1"/>
       <c r="R693" s="1"/>
       <c r="S693" s="1"/>
@@ -14076,7 +14078,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" spans="1:26" ht="12.45">
+    <row r="694" spans="1:26" ht="12.5">
       <c r="A694" s="1"/>
       <c r="R694" s="1"/>
       <c r="S694" s="1"/>
@@ -14088,7 +14090,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" spans="1:26" ht="12.45">
+    <row r="695" spans="1:26" ht="12.5">
       <c r="A695" s="1"/>
       <c r="R695" s="1"/>
       <c r="S695" s="1"/>
@@ -14100,7 +14102,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" spans="1:26" ht="12.45">
+    <row r="696" spans="1:26" ht="12.5">
       <c r="A696" s="1"/>
       <c r="R696" s="1"/>
       <c r="S696" s="1"/>
@@ -14112,7 +14114,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" spans="1:26" ht="12.45">
+    <row r="697" spans="1:26" ht="12.5">
       <c r="A697" s="1"/>
       <c r="R697" s="1"/>
       <c r="S697" s="1"/>
@@ -14124,7 +14126,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" spans="1:26" ht="12.45">
+    <row r="698" spans="1:26" ht="12.5">
       <c r="A698" s="1"/>
       <c r="R698" s="1"/>
       <c r="S698" s="1"/>
@@ -14136,7 +14138,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" spans="1:26" ht="12.45">
+    <row r="699" spans="1:26" ht="12.5">
       <c r="A699" s="1"/>
       <c r="R699" s="1"/>
       <c r="S699" s="1"/>
@@ -14148,7 +14150,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" spans="1:26" ht="12.45">
+    <row r="700" spans="1:26" ht="12.5">
       <c r="A700" s="1"/>
       <c r="R700" s="1"/>
       <c r="S700" s="1"/>
@@ -14160,7 +14162,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" spans="1:26" ht="12.45">
+    <row r="701" spans="1:26" ht="12.5">
       <c r="A701" s="1"/>
       <c r="R701" s="1"/>
       <c r="S701" s="1"/>
@@ -14172,7 +14174,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" spans="1:26" ht="12.45">
+    <row r="702" spans="1:26" ht="12.5">
       <c r="A702" s="1"/>
       <c r="R702" s="1"/>
       <c r="S702" s="1"/>
@@ -14184,7 +14186,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" spans="1:26" ht="12.45">
+    <row r="703" spans="1:26" ht="12.5">
       <c r="A703" s="1"/>
       <c r="R703" s="1"/>
       <c r="S703" s="1"/>
@@ -14196,7 +14198,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" spans="1:26" ht="12.45">
+    <row r="704" spans="1:26" ht="12.5">
       <c r="A704" s="1"/>
       <c r="R704" s="1"/>
       <c r="S704" s="1"/>
@@ -14208,7 +14210,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" spans="1:26" ht="12.45">
+    <row r="705" spans="1:26" ht="12.5">
       <c r="A705" s="1"/>
       <c r="R705" s="1"/>
       <c r="S705" s="1"/>
@@ -14220,7 +14222,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" spans="1:26" ht="12.45">
+    <row r="706" spans="1:26" ht="12.5">
       <c r="A706" s="1"/>
       <c r="R706" s="1"/>
       <c r="S706" s="1"/>
@@ -14232,7 +14234,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" spans="1:26" ht="12.45">
+    <row r="707" spans="1:26" ht="12.5">
       <c r="A707" s="1"/>
       <c r="R707" s="1"/>
       <c r="S707" s="1"/>
@@ -14244,7 +14246,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" spans="1:26" ht="12.45">
+    <row r="708" spans="1:26" ht="12.5">
       <c r="A708" s="1"/>
       <c r="R708" s="1"/>
       <c r="S708" s="1"/>
@@ -14256,7 +14258,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" spans="1:26" ht="12.45">
+    <row r="709" spans="1:26" ht="12.5">
       <c r="A709" s="1"/>
       <c r="R709" s="1"/>
       <c r="S709" s="1"/>
@@ -14268,7 +14270,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" spans="1:26" ht="12.45">
+    <row r="710" spans="1:26" ht="12.5">
       <c r="A710" s="1"/>
       <c r="R710" s="1"/>
       <c r="S710" s="1"/>
@@ -14280,7 +14282,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" spans="1:26" ht="12.45">
+    <row r="711" spans="1:26" ht="12.5">
       <c r="A711" s="1"/>
       <c r="R711" s="1"/>
       <c r="S711" s="1"/>
@@ -14292,7 +14294,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" spans="1:26" ht="12.45">
+    <row r="712" spans="1:26" ht="12.5">
       <c r="A712" s="1"/>
       <c r="R712" s="1"/>
       <c r="S712" s="1"/>
@@ -14304,7 +14306,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" spans="1:26" ht="12.45">
+    <row r="713" spans="1:26" ht="12.5">
       <c r="A713" s="1"/>
       <c r="R713" s="1"/>
       <c r="S713" s="1"/>
@@ -14316,7 +14318,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" spans="1:26" ht="12.45">
+    <row r="714" spans="1:26" ht="12.5">
       <c r="A714" s="1"/>
       <c r="R714" s="1"/>
       <c r="S714" s="1"/>
@@ -14328,7 +14330,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" spans="1:26" ht="12.45">
+    <row r="715" spans="1:26" ht="12.5">
       <c r="A715" s="1"/>
       <c r="R715" s="1"/>
       <c r="S715" s="1"/>
@@ -14340,7 +14342,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" spans="1:26" ht="12.45">
+    <row r="716" spans="1:26" ht="12.5">
       <c r="A716" s="1"/>
       <c r="R716" s="1"/>
       <c r="S716" s="1"/>
@@ -14352,7 +14354,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" spans="1:26" ht="12.45">
+    <row r="717" spans="1:26" ht="12.5">
       <c r="A717" s="1"/>
       <c r="R717" s="1"/>
       <c r="S717" s="1"/>
@@ -14364,7 +14366,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" spans="1:26" ht="12.45">
+    <row r="718" spans="1:26" ht="12.5">
       <c r="A718" s="1"/>
       <c r="R718" s="1"/>
       <c r="S718" s="1"/>
@@ -14376,7 +14378,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" spans="1:26" ht="12.45">
+    <row r="719" spans="1:26" ht="12.5">
       <c r="A719" s="1"/>
       <c r="R719" s="1"/>
       <c r="S719" s="1"/>
@@ -14388,7 +14390,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" spans="1:26" ht="12.45">
+    <row r="720" spans="1:26" ht="12.5">
       <c r="A720" s="1"/>
       <c r="R720" s="1"/>
       <c r="S720" s="1"/>
@@ -14400,7 +14402,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" spans="1:26" ht="12.45">
+    <row r="721" spans="1:26" ht="12.5">
       <c r="A721" s="1"/>
       <c r="R721" s="1"/>
       <c r="S721" s="1"/>
@@ -14412,7 +14414,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" spans="1:26" ht="12.45">
+    <row r="722" spans="1:26" ht="12.5">
       <c r="A722" s="1"/>
       <c r="R722" s="1"/>
       <c r="S722" s="1"/>
@@ -14424,7 +14426,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" spans="1:26" ht="12.45">
+    <row r="723" spans="1:26" ht="12.5">
       <c r="A723" s="1"/>
       <c r="R723" s="1"/>
       <c r="S723" s="1"/>
@@ -14436,7 +14438,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" spans="1:26" ht="12.45">
+    <row r="724" spans="1:26" ht="12.5">
       <c r="A724" s="1"/>
       <c r="R724" s="1"/>
       <c r="S724" s="1"/>
@@ -14448,7 +14450,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" spans="1:26" ht="12.45">
+    <row r="725" spans="1:26" ht="12.5">
       <c r="A725" s="1"/>
       <c r="R725" s="1"/>
       <c r="S725" s="1"/>
@@ -14460,7 +14462,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" spans="1:26" ht="12.45">
+    <row r="726" spans="1:26" ht="12.5">
       <c r="A726" s="1"/>
       <c r="R726" s="1"/>
       <c r="S726" s="1"/>
@@ -14472,7 +14474,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" spans="1:26" ht="12.45">
+    <row r="727" spans="1:26" ht="12.5">
       <c r="A727" s="1"/>
       <c r="R727" s="1"/>
       <c r="S727" s="1"/>
@@ -14484,7 +14486,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" spans="1:26" ht="12.45">
+    <row r="728" spans="1:26" ht="12.5">
       <c r="A728" s="1"/>
       <c r="R728" s="1"/>
       <c r="S728" s="1"/>
@@ -14496,7 +14498,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" spans="1:26" ht="12.45">
+    <row r="729" spans="1:26" ht="12.5">
       <c r="A729" s="1"/>
       <c r="R729" s="1"/>
       <c r="S729" s="1"/>
@@ -14508,7 +14510,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" spans="1:26" ht="12.45">
+    <row r="730" spans="1:26" ht="12.5">
       <c r="A730" s="1"/>
       <c r="R730" s="1"/>
       <c r="S730" s="1"/>
@@ -14520,7 +14522,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" spans="1:26" ht="12.45">
+    <row r="731" spans="1:26" ht="12.5">
       <c r="A731" s="1"/>
       <c r="R731" s="1"/>
       <c r="S731" s="1"/>
@@ -14532,7 +14534,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" spans="1:26" ht="12.45">
+    <row r="732" spans="1:26" ht="12.5">
       <c r="A732" s="1"/>
       <c r="R732" s="1"/>
       <c r="S732" s="1"/>
@@ -14544,7 +14546,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" spans="1:26" ht="12.45">
+    <row r="733" spans="1:26" ht="12.5">
       <c r="A733" s="1"/>
       <c r="R733" s="1"/>
       <c r="S733" s="1"/>
@@ -14556,7 +14558,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" spans="1:26" ht="12.45">
+    <row r="734" spans="1:26" ht="12.5">
       <c r="A734" s="1"/>
       <c r="R734" s="1"/>
       <c r="S734" s="1"/>
@@ -14568,7 +14570,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" spans="1:26" ht="12.45">
+    <row r="735" spans="1:26" ht="12.5">
       <c r="A735" s="1"/>
       <c r="R735" s="1"/>
       <c r="S735" s="1"/>
@@ -14580,7 +14582,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" spans="1:26" ht="12.45">
+    <row r="736" spans="1:26" ht="12.5">
       <c r="A736" s="1"/>
       <c r="R736" s="1"/>
       <c r="S736" s="1"/>
@@ -14592,7 +14594,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" spans="1:26" ht="12.45">
+    <row r="737" spans="1:26" ht="12.5">
       <c r="A737" s="1"/>
       <c r="R737" s="1"/>
       <c r="S737" s="1"/>
@@ -14604,7 +14606,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" spans="1:26" ht="12.45">
+    <row r="738" spans="1:26" ht="12.5">
       <c r="A738" s="1"/>
       <c r="R738" s="1"/>
       <c r="S738" s="1"/>
@@ -14616,7 +14618,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" spans="1:26" ht="12.45">
+    <row r="739" spans="1:26" ht="12.5">
       <c r="A739" s="1"/>
       <c r="R739" s="1"/>
       <c r="S739" s="1"/>
@@ -14628,7 +14630,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" spans="1:26" ht="12.45">
+    <row r="740" spans="1:26" ht="12.5">
       <c r="A740" s="1"/>
       <c r="R740" s="1"/>
       <c r="S740" s="1"/>
@@ -14640,7 +14642,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" spans="1:26" ht="12.45">
+    <row r="741" spans="1:26" ht="12.5">
       <c r="A741" s="1"/>
       <c r="R741" s="1"/>
       <c r="S741" s="1"/>
@@ -14652,7 +14654,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" spans="1:26" ht="12.45">
+    <row r="742" spans="1:26" ht="12.5">
       <c r="A742" s="1"/>
       <c r="R742" s="1"/>
       <c r="S742" s="1"/>
@@ -14664,7 +14666,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" spans="1:26" ht="12.45">
+    <row r="743" spans="1:26" ht="12.5">
       <c r="A743" s="1"/>
       <c r="R743" s="1"/>
       <c r="S743" s="1"/>
@@ -14676,7 +14678,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" spans="1:26" ht="12.45">
+    <row r="744" spans="1:26" ht="12.5">
       <c r="A744" s="1"/>
       <c r="R744" s="1"/>
       <c r="S744" s="1"/>
@@ -14688,7 +14690,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" spans="1:26" ht="12.45">
+    <row r="745" spans="1:26" ht="12.5">
       <c r="A745" s="1"/>
       <c r="R745" s="1"/>
       <c r="S745" s="1"/>
@@ -14700,7 +14702,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" spans="1:26" ht="12.45">
+    <row r="746" spans="1:26" ht="12.5">
       <c r="A746" s="1"/>
       <c r="R746" s="1"/>
       <c r="S746" s="1"/>
@@ -14712,7 +14714,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" spans="1:26" ht="12.45">
+    <row r="747" spans="1:26" ht="12.5">
       <c r="A747" s="1"/>
       <c r="R747" s="1"/>
       <c r="S747" s="1"/>
@@ -14724,7 +14726,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" spans="1:26" ht="12.45">
+    <row r="748" spans="1:26" ht="12.5">
       <c r="A748" s="1"/>
       <c r="R748" s="1"/>
       <c r="S748" s="1"/>
@@ -14736,7 +14738,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" spans="1:26" ht="12.45">
+    <row r="749" spans="1:26" ht="12.5">
       <c r="A749" s="1"/>
       <c r="R749" s="1"/>
       <c r="S749" s="1"/>
@@ -14748,7 +14750,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" spans="1:26" ht="12.45">
+    <row r="750" spans="1:26" ht="12.5">
       <c r="A750" s="1"/>
       <c r="R750" s="1"/>
       <c r="S750" s="1"/>
@@ -14760,7 +14762,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" spans="1:26" ht="12.45">
+    <row r="751" spans="1:26" ht="12.5">
       <c r="A751" s="1"/>
       <c r="R751" s="1"/>
       <c r="S751" s="1"/>
@@ -14772,7 +14774,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" spans="1:26" ht="12.45">
+    <row r="752" spans="1:26" ht="12.5">
       <c r="A752" s="1"/>
       <c r="R752" s="1"/>
       <c r="S752" s="1"/>
@@ -14784,7 +14786,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" spans="1:26" ht="12.45">
+    <row r="753" spans="1:26" ht="12.5">
       <c r="A753" s="1"/>
       <c r="R753" s="1"/>
       <c r="S753" s="1"/>
@@ -14796,7 +14798,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" spans="1:26" ht="12.45">
+    <row r="754" spans="1:26" ht="12.5">
       <c r="A754" s="1"/>
       <c r="R754" s="1"/>
       <c r="S754" s="1"/>
@@ -14808,7 +14810,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" spans="1:26" ht="12.45">
+    <row r="755" spans="1:26" ht="12.5">
       <c r="A755" s="1"/>
       <c r="R755" s="1"/>
       <c r="S755" s="1"/>
@@ -14820,7 +14822,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" spans="1:26" ht="12.45">
+    <row r="756" spans="1:26" ht="12.5">
       <c r="A756" s="1"/>
       <c r="R756" s="1"/>
       <c r="S756" s="1"/>
@@ -14832,7 +14834,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" spans="1:26" ht="12.45">
+    <row r="757" spans="1:26" ht="12.5">
       <c r="A757" s="1"/>
       <c r="R757" s="1"/>
       <c r="S757" s="1"/>
@@ -14844,7 +14846,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" spans="1:26" ht="12.45">
+    <row r="758" spans="1:26" ht="12.5">
       <c r="A758" s="1"/>
       <c r="R758" s="1"/>
       <c r="S758" s="1"/>
@@ -14856,7 +14858,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" spans="1:26" ht="12.45">
+    <row r="759" spans="1:26" ht="12.5">
       <c r="A759" s="1"/>
       <c r="R759" s="1"/>
       <c r="S759" s="1"/>
@@ -14868,7 +14870,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" spans="1:26" ht="12.45">
+    <row r="760" spans="1:26" ht="12.5">
       <c r="A760" s="1"/>
       <c r="R760" s="1"/>
       <c r="S760" s="1"/>
@@ -14880,7 +14882,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" spans="1:26" ht="12.45">
+    <row r="761" spans="1:26" ht="12.5">
       <c r="A761" s="1"/>
       <c r="R761" s="1"/>
       <c r="S761" s="1"/>
@@ -14892,7 +14894,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" spans="1:26" ht="12.45">
+    <row r="762" spans="1:26" ht="12.5">
       <c r="A762" s="1"/>
       <c r="R762" s="1"/>
       <c r="S762" s="1"/>
@@ -14904,7 +14906,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" spans="1:26" ht="12.45">
+    <row r="763" spans="1:26" ht="12.5">
       <c r="A763" s="1"/>
       <c r="R763" s="1"/>
       <c r="S763" s="1"/>
@@ -14916,7 +14918,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" spans="1:26" ht="12.45">
+    <row r="764" spans="1:26" ht="12.5">
       <c r="A764" s="1"/>
       <c r="R764" s="1"/>
       <c r="S764" s="1"/>
@@ -14928,7 +14930,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" spans="1:26" ht="12.45">
+    <row r="765" spans="1:26" ht="12.5">
       <c r="A765" s="1"/>
       <c r="R765" s="1"/>
       <c r="S765" s="1"/>
@@ -14940,7 +14942,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" spans="1:26" ht="12.45">
+    <row r="766" spans="1:26" ht="12.5">
       <c r="A766" s="1"/>
       <c r="R766" s="1"/>
       <c r="S766" s="1"/>
@@ -14952,7 +14954,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" spans="1:26" ht="12.45">
+    <row r="767" spans="1:26" ht="12.5">
       <c r="A767" s="1"/>
       <c r="R767" s="1"/>
       <c r="S767" s="1"/>
@@ -14964,7 +14966,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" spans="1:26" ht="12.45">
+    <row r="768" spans="1:26" ht="12.5">
       <c r="A768" s="1"/>
       <c r="R768" s="1"/>
       <c r="S768" s="1"/>
@@ -14976,7 +14978,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" spans="1:26" ht="12.45">
+    <row r="769" spans="1:26" ht="12.5">
       <c r="A769" s="1"/>
       <c r="R769" s="1"/>
       <c r="S769" s="1"/>
@@ -14988,7 +14990,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" spans="1:26" ht="12.45">
+    <row r="770" spans="1:26" ht="12.5">
       <c r="A770" s="1"/>
       <c r="R770" s="1"/>
       <c r="S770" s="1"/>
@@ -15000,7 +15002,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" spans="1:26" ht="12.45">
+    <row r="771" spans="1:26" ht="12.5">
       <c r="A771" s="1"/>
       <c r="R771" s="1"/>
       <c r="S771" s="1"/>
@@ -15012,7 +15014,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" spans="1:26" ht="12.45">
+    <row r="772" spans="1:26" ht="12.5">
       <c r="A772" s="1"/>
       <c r="R772" s="1"/>
       <c r="S772" s="1"/>
@@ -15024,7 +15026,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" spans="1:26" ht="12.45">
+    <row r="773" spans="1:26" ht="12.5">
       <c r="A773" s="1"/>
       <c r="R773" s="1"/>
       <c r="S773" s="1"/>
@@ -15036,7 +15038,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" spans="1:26" ht="12.45">
+    <row r="774" spans="1:26" ht="12.5">
       <c r="A774" s="1"/>
       <c r="R774" s="1"/>
       <c r="S774" s="1"/>
@@ -15048,7 +15050,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" spans="1:26" ht="12.45">
+    <row r="775" spans="1:26" ht="12.5">
       <c r="A775" s="1"/>
       <c r="R775" s="1"/>
       <c r="S775" s="1"/>
@@ -15060,7 +15062,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" spans="1:26" ht="12.45">
+    <row r="776" spans="1:26" ht="12.5">
       <c r="A776" s="1"/>
       <c r="R776" s="1"/>
       <c r="S776" s="1"/>
@@ -15072,7 +15074,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" spans="1:26" ht="12.45">
+    <row r="777" spans="1:26" ht="12.5">
       <c r="A777" s="1"/>
       <c r="R777" s="1"/>
       <c r="S777" s="1"/>
@@ -15084,7 +15086,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" spans="1:26" ht="12.45">
+    <row r="778" spans="1:26" ht="12.5">
       <c r="A778" s="1"/>
       <c r="R778" s="1"/>
       <c r="S778" s="1"/>
@@ -15096,7 +15098,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" spans="1:26" ht="12.45">
+    <row r="779" spans="1:26" ht="12.5">
       <c r="A779" s="1"/>
       <c r="R779" s="1"/>
       <c r="S779" s="1"/>
@@ -15108,7 +15110,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" spans="1:26" ht="12.45">
+    <row r="780" spans="1:26" ht="12.5">
       <c r="A780" s="1"/>
       <c r="R780" s="1"/>
       <c r="S780" s="1"/>
@@ -15120,7 +15122,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" spans="1:26" ht="12.45">
+    <row r="781" spans="1:26" ht="12.5">
       <c r="A781" s="1"/>
       <c r="R781" s="1"/>
       <c r="S781" s="1"/>
@@ -15132,7 +15134,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" spans="1:26" ht="12.45">
+    <row r="782" spans="1:26" ht="12.5">
       <c r="A782" s="1"/>
       <c r="R782" s="1"/>
       <c r="S782" s="1"/>
@@ -15144,7 +15146,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" spans="1:26" ht="12.45">
+    <row r="783" spans="1:26" ht="12.5">
       <c r="A783" s="1"/>
       <c r="R783" s="1"/>
       <c r="S783" s="1"/>
@@ -15156,7 +15158,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" spans="1:26" ht="12.45">
+    <row r="784" spans="1:26" ht="12.5">
       <c r="A784" s="1"/>
       <c r="R784" s="1"/>
       <c r="S784" s="1"/>
@@ -15168,7 +15170,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" spans="1:26" ht="12.45">
+    <row r="785" spans="1:26" ht="12.5">
       <c r="A785" s="1"/>
       <c r="R785" s="1"/>
       <c r="S785" s="1"/>
@@ -15180,7 +15182,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" spans="1:26" ht="12.45">
+    <row r="786" spans="1:26" ht="12.5">
       <c r="A786" s="1"/>
       <c r="R786" s="1"/>
       <c r="S786" s="1"/>
@@ -15192,7 +15194,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" spans="1:26" ht="12.45">
+    <row r="787" spans="1:26" ht="12.5">
       <c r="A787" s="1"/>
       <c r="R787" s="1"/>
       <c r="S787" s="1"/>
@@ -15204,7 +15206,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" spans="1:26" ht="12.45">
+    <row r="788" spans="1:26" ht="12.5">
       <c r="A788" s="1"/>
       <c r="R788" s="1"/>
       <c r="S788" s="1"/>
@@ -15216,7 +15218,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" spans="1:26" ht="12.45">
+    <row r="789" spans="1:26" ht="12.5">
       <c r="A789" s="1"/>
       <c r="R789" s="1"/>
       <c r="S789" s="1"/>
@@ -15228,7 +15230,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" spans="1:26" ht="12.45">
+    <row r="790" spans="1:26" ht="12.5">
       <c r="A790" s="1"/>
       <c r="R790" s="1"/>
       <c r="S790" s="1"/>
@@ -15240,7 +15242,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" spans="1:26" ht="12.45">
+    <row r="791" spans="1:26" ht="12.5">
       <c r="A791" s="1"/>
       <c r="R791" s="1"/>
       <c r="S791" s="1"/>
@@ -15252,7 +15254,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" spans="1:26" ht="12.45">
+    <row r="792" spans="1:26" ht="12.5">
       <c r="A792" s="1"/>
       <c r="R792" s="1"/>
       <c r="S792" s="1"/>
@@ -15264,7 +15266,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" spans="1:26" ht="12.45">
+    <row r="793" spans="1:26" ht="12.5">
       <c r="A793" s="1"/>
       <c r="R793" s="1"/>
       <c r="S793" s="1"/>
@@ -15276,7 +15278,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" spans="1:26" ht="12.45">
+    <row r="794" spans="1:26" ht="12.5">
       <c r="A794" s="1"/>
       <c r="R794" s="1"/>
       <c r="S794" s="1"/>
@@ -15288,7 +15290,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" spans="1:26" ht="12.45">
+    <row r="795" spans="1:26" ht="12.5">
       <c r="A795" s="1"/>
       <c r="R795" s="1"/>
       <c r="S795" s="1"/>
@@ -15300,7 +15302,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" spans="1:26" ht="12.45">
+    <row r="796" spans="1:26" ht="12.5">
       <c r="A796" s="1"/>
       <c r="R796" s="1"/>
       <c r="S796" s="1"/>
@@ -15312,7 +15314,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" spans="1:26" ht="12.45">
+    <row r="797" spans="1:26" ht="12.5">
       <c r="A797" s="1"/>
       <c r="R797" s="1"/>
       <c r="S797" s="1"/>
@@ -15324,7 +15326,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" spans="1:26" ht="12.45">
+    <row r="798" spans="1:26" ht="12.5">
       <c r="A798" s="1"/>
       <c r="R798" s="1"/>
       <c r="S798" s="1"/>
@@ -15336,7 +15338,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" spans="1:26" ht="12.45">
+    <row r="799" spans="1:26" ht="12.5">
       <c r="A799" s="1"/>
       <c r="R799" s="1"/>
       <c r="S799" s="1"/>
@@ -15348,7 +15350,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" spans="1:26" ht="12.45">
+    <row r="800" spans="1:26" ht="12.5">
       <c r="A800" s="1"/>
       <c r="R800" s="1"/>
       <c r="S800" s="1"/>
@@ -15360,7 +15362,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" spans="1:26" ht="12.45">
+    <row r="801" spans="1:26" ht="12.5">
       <c r="A801" s="1"/>
       <c r="R801" s="1"/>
       <c r="S801" s="1"/>
@@ -15372,7 +15374,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" spans="1:26" ht="12.45">
+    <row r="802" spans="1:26" ht="12.5">
       <c r="A802" s="1"/>
       <c r="R802" s="1"/>
       <c r="S802" s="1"/>
@@ -15384,7 +15386,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" spans="1:26" ht="12.45">
+    <row r="803" spans="1:26" ht="12.5">
       <c r="A803" s="1"/>
       <c r="R803" s="1"/>
       <c r="S803" s="1"/>
@@ -15396,7 +15398,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" spans="1:26" ht="12.45">
+    <row r="804" spans="1:26" ht="12.5">
       <c r="A804" s="1"/>
       <c r="R804" s="1"/>
       <c r="S804" s="1"/>
@@ -15408,7 +15410,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" spans="1:26" ht="12.45">
+    <row r="805" spans="1:26" ht="12.5">
       <c r="A805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="1"/>
@@ -15420,7 +15422,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" spans="1:26" ht="12.45">
+    <row r="806" spans="1:26" ht="12.5">
       <c r="A806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="1"/>
@@ -15432,7 +15434,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" spans="1:26" ht="12.45">
+    <row r="807" spans="1:26" ht="12.5">
       <c r="A807" s="1"/>
       <c r="R807" s="1"/>
       <c r="S807" s="1"/>
@@ -15444,7 +15446,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" spans="1:26" ht="12.45">
+    <row r="808" spans="1:26" ht="12.5">
       <c r="A808" s="1"/>
       <c r="R808" s="1"/>
       <c r="S808" s="1"/>
@@ -15456,7 +15458,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" spans="1:26" ht="12.45">
+    <row r="809" spans="1:26" ht="12.5">
       <c r="A809" s="1"/>
       <c r="R809" s="1"/>
       <c r="S809" s="1"/>
@@ -15468,7 +15470,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" spans="1:26" ht="12.45">
+    <row r="810" spans="1:26" ht="12.5">
       <c r="A810" s="1"/>
       <c r="R810" s="1"/>
       <c r="S810" s="1"/>
@@ -15480,7 +15482,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" spans="1:26" ht="12.45">
+    <row r="811" spans="1:26" ht="12.5">
       <c r="A811" s="1"/>
       <c r="R811" s="1"/>
       <c r="S811" s="1"/>
@@ -15492,7 +15494,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" spans="1:26" ht="12.45">
+    <row r="812" spans="1:26" ht="12.5">
       <c r="A812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="1"/>
@@ -15504,7 +15506,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" spans="1:26" ht="12.45">
+    <row r="813" spans="1:26" ht="12.5">
       <c r="A813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="1"/>
@@ -15516,7 +15518,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" spans="1:26" ht="12.45">
+    <row r="814" spans="1:26" ht="12.5">
       <c r="A814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="1"/>
@@ -15528,7 +15530,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" spans="1:26" ht="12.45">
+    <row r="815" spans="1:26" ht="12.5">
       <c r="A815" s="1"/>
       <c r="R815" s="1"/>
       <c r="S815" s="1"/>
@@ -15540,7 +15542,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" spans="1:26" ht="12.45">
+    <row r="816" spans="1:26" ht="12.5">
       <c r="A816" s="1"/>
       <c r="R816" s="1"/>
       <c r="S816" s="1"/>
@@ -15552,7 +15554,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" spans="1:26" ht="12.45">
+    <row r="817" spans="1:26" ht="12.5">
       <c r="A817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="1"/>
@@ -15564,7 +15566,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" spans="1:26" ht="12.45">
+    <row r="818" spans="1:26" ht="12.5">
       <c r="A818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="1"/>
@@ -15576,7 +15578,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" spans="1:26" ht="12.45">
+    <row r="819" spans="1:26" ht="12.5">
       <c r="A819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="1"/>
@@ -15588,7 +15590,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" spans="1:26" ht="12.45">
+    <row r="820" spans="1:26" ht="12.5">
       <c r="A820" s="1"/>
       <c r="R820" s="1"/>
       <c r="S820" s="1"/>
@@ -15600,7 +15602,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" spans="1:26" ht="12.45">
+    <row r="821" spans="1:26" ht="12.5">
       <c r="A821" s="1"/>
       <c r="R821" s="1"/>
       <c r="S821" s="1"/>
@@ -15612,7 +15614,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" spans="1:26" ht="12.45">
+    <row r="822" spans="1:26" ht="12.5">
       <c r="A822" s="1"/>
       <c r="R822" s="1"/>
       <c r="S822" s="1"/>
@@ -15624,7 +15626,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" spans="1:26" ht="12.45">
+    <row r="823" spans="1:26" ht="12.5">
       <c r="A823" s="1"/>
       <c r="R823" s="1"/>
       <c r="S823" s="1"/>
@@ -15636,7 +15638,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" spans="1:26" ht="12.45">
+    <row r="824" spans="1:26" ht="12.5">
       <c r="A824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="1"/>
@@ -15648,7 +15650,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" spans="1:26" ht="12.45">
+    <row r="825" spans="1:26" ht="12.5">
       <c r="A825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="1"/>
@@ -15660,7 +15662,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" spans="1:26" ht="12.45">
+    <row r="826" spans="1:26" ht="12.5">
       <c r="A826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="1"/>
@@ -15672,7 +15674,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" spans="1:26" ht="12.45">
+    <row r="827" spans="1:26" ht="12.5">
       <c r="A827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="1"/>
@@ -15684,7 +15686,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" spans="1:26" ht="12.45">
+    <row r="828" spans="1:26" ht="12.5">
       <c r="A828" s="1"/>
       <c r="R828" s="1"/>
       <c r="S828" s="1"/>
@@ -15696,7 +15698,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" spans="1:26" ht="12.45">
+    <row r="829" spans="1:26" ht="12.5">
       <c r="A829" s="1"/>
       <c r="R829" s="1"/>
       <c r="S829" s="1"/>
@@ -15708,7 +15710,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" spans="1:26" ht="12.45">
+    <row r="830" spans="1:26" ht="12.5">
       <c r="A830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="1"/>
@@ -15720,7 +15722,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" spans="1:26" ht="12.45">
+    <row r="831" spans="1:26" ht="12.5">
       <c r="A831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="1"/>
@@ -15732,7 +15734,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" spans="1:26" ht="12.45">
+    <row r="832" spans="1:26" ht="12.5">
       <c r="A832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="1"/>
@@ -15744,7 +15746,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" spans="1:26" ht="12.45">
+    <row r="833" spans="1:26" ht="12.5">
       <c r="A833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="1"/>
@@ -15756,7 +15758,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" spans="1:26" ht="12.45">
+    <row r="834" spans="1:26" ht="12.5">
       <c r="A834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="1"/>
@@ -15768,7 +15770,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" spans="1:26" ht="12.45">
+    <row r="835" spans="1:26" ht="12.5">
       <c r="A835" s="1"/>
       <c r="R835" s="1"/>
       <c r="S835" s="1"/>
@@ -15780,7 +15782,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" spans="1:26" ht="12.45">
+    <row r="836" spans="1:26" ht="12.5">
       <c r="A836" s="1"/>
       <c r="R836" s="1"/>
       <c r="S836" s="1"/>
@@ -15792,7 +15794,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" spans="1:26" ht="12.45">
+    <row r="837" spans="1:26" ht="12.5">
       <c r="A837" s="1"/>
       <c r="R837" s="1"/>
       <c r="S837" s="1"/>
@@ -15804,7 +15806,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" spans="1:26" ht="12.45">
+    <row r="838" spans="1:26" ht="12.5">
       <c r="A838" s="1"/>
       <c r="R838" s="1"/>
       <c r="S838" s="1"/>
@@ -15816,7 +15818,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" spans="1:26" ht="12.45">
+    <row r="839" spans="1:26" ht="12.5">
       <c r="A839" s="1"/>
       <c r="R839" s="1"/>
       <c r="S839" s="1"/>
@@ -15828,7 +15830,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" spans="1:26" ht="12.45">
+    <row r="840" spans="1:26" ht="12.5">
       <c r="A840" s="1"/>
       <c r="R840" s="1"/>
       <c r="S840" s="1"/>
@@ -15840,7 +15842,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" spans="1:26" ht="12.45">
+    <row r="841" spans="1:26" ht="12.5">
       <c r="A841" s="1"/>
       <c r="R841" s="1"/>
       <c r="S841" s="1"/>
@@ -15852,7 +15854,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" spans="1:26" ht="12.45">
+    <row r="842" spans="1:26" ht="12.5">
       <c r="A842" s="1"/>
       <c r="R842" s="1"/>
       <c r="S842" s="1"/>
@@ -15864,7 +15866,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" spans="1:26" ht="12.45">
+    <row r="843" spans="1:26" ht="12.5">
       <c r="A843" s="1"/>
       <c r="R843" s="1"/>
       <c r="S843" s="1"/>
@@ -15876,7 +15878,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" spans="1:26" ht="12.45">
+    <row r="844" spans="1:26" ht="12.5">
       <c r="A844" s="1"/>
       <c r="R844" s="1"/>
       <c r="S844" s="1"/>
@@ -15888,7 +15890,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" spans="1:26" ht="12.45">
+    <row r="845" spans="1:26" ht="12.5">
       <c r="A845" s="1"/>
       <c r="R845" s="1"/>
       <c r="S845" s="1"/>
@@ -15900,7 +15902,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" spans="1:26" ht="12.45">
+    <row r="846" spans="1:26" ht="12.5">
       <c r="A846" s="1"/>
       <c r="R846" s="1"/>
       <c r="S846" s="1"/>
@@ -15912,7 +15914,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" spans="1:26" ht="12.45">
+    <row r="847" spans="1:26" ht="12.5">
       <c r="A847" s="1"/>
       <c r="R847" s="1"/>
       <c r="S847" s="1"/>
@@ -15924,7 +15926,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" spans="1:26" ht="12.45">
+    <row r="848" spans="1:26" ht="12.5">
       <c r="A848" s="1"/>
       <c r="R848" s="1"/>
       <c r="S848" s="1"/>
@@ -15936,7 +15938,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" spans="1:26" ht="12.45">
+    <row r="849" spans="1:26" ht="12.5">
       <c r="A849" s="1"/>
       <c r="R849" s="1"/>
       <c r="S849" s="1"/>
@@ -15948,7 +15950,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" spans="1:26" ht="12.45">
+    <row r="850" spans="1:26" ht="12.5">
       <c r="A850" s="1"/>
       <c r="R850" s="1"/>
       <c r="S850" s="1"/>
@@ -15960,7 +15962,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" spans="1:26" ht="12.45">
+    <row r="851" spans="1:26" ht="12.5">
       <c r="A851" s="1"/>
       <c r="R851" s="1"/>
       <c r="S851" s="1"/>
@@ -15972,7 +15974,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" spans="1:26" ht="12.45">
+    <row r="852" spans="1:26" ht="12.5">
       <c r="A852" s="1"/>
       <c r="R852" s="1"/>
       <c r="S852" s="1"/>
@@ -15984,7 +15986,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" spans="1:26" ht="12.45">
+    <row r="853" spans="1:26" ht="12.5">
       <c r="A853" s="1"/>
       <c r="R853" s="1"/>
       <c r="S853" s="1"/>
@@ -15996,7 +15998,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" spans="1:26" ht="12.45">
+    <row r="854" spans="1:26" ht="12.5">
       <c r="A854" s="1"/>
       <c r="R854" s="1"/>
       <c r="S854" s="1"/>
@@ -16008,7 +16010,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" spans="1:26" ht="12.45">
+    <row r="855" spans="1:26" ht="12.5">
       <c r="A855" s="1"/>
       <c r="R855" s="1"/>
       <c r="S855" s="1"/>
@@ -16020,7 +16022,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" spans="1:26" ht="12.45">
+    <row r="856" spans="1:26" ht="12.5">
       <c r="A856" s="1"/>
       <c r="R856" s="1"/>
       <c r="S856" s="1"/>
@@ -16032,7 +16034,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" spans="1:26" ht="12.45">
+    <row r="857" spans="1:26" ht="12.5">
       <c r="A857" s="1"/>
       <c r="R857" s="1"/>
       <c r="S857" s="1"/>
@@ -16044,7 +16046,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" spans="1:26" ht="12.45">
+    <row r="858" spans="1:26" ht="12.5">
       <c r="A858" s="1"/>
       <c r="R858" s="1"/>
       <c r="S858" s="1"/>
@@ -16056,7 +16058,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" spans="1:26" ht="12.45">
+    <row r="859" spans="1:26" ht="12.5">
       <c r="A859" s="1"/>
       <c r="R859" s="1"/>
       <c r="S859" s="1"/>
@@ -16068,7 +16070,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" spans="1:26" ht="12.45">
+    <row r="860" spans="1:26" ht="12.5">
       <c r="A860" s="1"/>
       <c r="R860" s="1"/>
       <c r="S860" s="1"/>
@@ -16080,7 +16082,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" spans="1:26" ht="12.45">
+    <row r="861" spans="1:26" ht="12.5">
       <c r="A861" s="1"/>
       <c r="R861" s="1"/>
       <c r="S861" s="1"/>
@@ -16092,7 +16094,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" spans="1:26" ht="12.45">
+    <row r="862" spans="1:26" ht="12.5">
       <c r="A862" s="1"/>
       <c r="R862" s="1"/>
       <c r="S862" s="1"/>
@@ -16104,7 +16106,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" spans="1:26" ht="12.45">
+    <row r="863" spans="1:26" ht="12.5">
       <c r="A863" s="1"/>
       <c r="R863" s="1"/>
       <c r="S863" s="1"/>
@@ -16116,7 +16118,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" spans="1:26" ht="12.45">
+    <row r="864" spans="1:26" ht="12.5">
       <c r="A864" s="1"/>
       <c r="R864" s="1"/>
       <c r="S864" s="1"/>
@@ -16128,7 +16130,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" spans="1:26" ht="12.45">
+    <row r="865" spans="1:26" ht="12.5">
       <c r="A865" s="1"/>
       <c r="R865" s="1"/>
       <c r="S865" s="1"/>
@@ -16140,7 +16142,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" spans="1:26" ht="12.45">
+    <row r="866" spans="1:26" ht="12.5">
       <c r="A866" s="1"/>
       <c r="R866" s="1"/>
       <c r="S866" s="1"/>
@@ -16152,7 +16154,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" spans="1:26" ht="12.45">
+    <row r="867" spans="1:26" ht="12.5">
       <c r="A867" s="1"/>
       <c r="R867" s="1"/>
       <c r="S867" s="1"/>
@@ -16164,7 +16166,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" spans="1:26" ht="12.45">
+    <row r="868" spans="1:26" ht="12.5">
       <c r="A868" s="1"/>
       <c r="R868" s="1"/>
       <c r="S868" s="1"/>
@@ -16176,7 +16178,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" spans="1:26" ht="12.45">
+    <row r="869" spans="1:26" ht="12.5">
       <c r="A869" s="1"/>
       <c r="R869" s="1"/>
       <c r="S869" s="1"/>
@@ -16188,7 +16190,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" spans="1:26" ht="12.45">
+    <row r="870" spans="1:26" ht="12.5">
       <c r="A870" s="1"/>
       <c r="R870" s="1"/>
       <c r="S870" s="1"/>
@@ -16200,7 +16202,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" spans="1:26" ht="12.45">
+    <row r="871" spans="1:26" ht="12.5">
       <c r="A871" s="1"/>
       <c r="R871" s="1"/>
       <c r="S871" s="1"/>
@@ -16212,7 +16214,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" spans="1:26" ht="12.45">
+    <row r="872" spans="1:26" ht="12.5">
       <c r="A872" s="1"/>
       <c r="R872" s="1"/>
       <c r="S872" s="1"/>
@@ -16224,7 +16226,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" spans="1:26" ht="12.45">
+    <row r="873" spans="1:26" ht="12.5">
       <c r="A873" s="1"/>
       <c r="R873" s="1"/>
       <c r="S873" s="1"/>
@@ -16236,7 +16238,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" spans="1:26" ht="12.45">
+    <row r="874" spans="1:26" ht="12.5">
       <c r="A874" s="1"/>
       <c r="R874" s="1"/>
       <c r="S874" s="1"/>
@@ -16248,7 +16250,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" spans="1:26" ht="12.45">
+    <row r="875" spans="1:26" ht="12.5">
       <c r="A875" s="1"/>
       <c r="R875" s="1"/>
       <c r="S875" s="1"/>
@@ -16260,7 +16262,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" spans="1:26" ht="12.45">
+    <row r="876" spans="1:26" ht="12.5">
       <c r="A876" s="1"/>
       <c r="R876" s="1"/>
       <c r="S876" s="1"/>
@@ -16272,7 +16274,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" spans="1:26" ht="12.45">
+    <row r="877" spans="1:26" ht="12.5">
       <c r="A877" s="1"/>
       <c r="R877" s="1"/>
       <c r="S877" s="1"/>
@@ -16284,7 +16286,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" spans="1:26" ht="12.45">
+    <row r="878" spans="1:26" ht="12.5">
       <c r="A878" s="1"/>
       <c r="R878" s="1"/>
       <c r="S878" s="1"/>
@@ -16296,7 +16298,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" spans="1:26" ht="12.45">
+    <row r="879" spans="1:26" ht="12.5">
       <c r="A879" s="1"/>
       <c r="R879" s="1"/>
       <c r="S879" s="1"/>
@@ -16308,7 +16310,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" spans="1:26" ht="12.45">
+    <row r="880" spans="1:26" ht="12.5">
       <c r="A880" s="1"/>
       <c r="R880" s="1"/>
       <c r="S880" s="1"/>
@@ -16320,7 +16322,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" spans="1:26" ht="12.45">
+    <row r="881" spans="1:26" ht="12.5">
       <c r="A881" s="1"/>
       <c r="R881" s="1"/>
       <c r="S881" s="1"/>
@@ -16332,7 +16334,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" spans="1:26" ht="12.45">
+    <row r="882" spans="1:26" ht="12.5">
       <c r="A882" s="1"/>
       <c r="R882" s="1"/>
       <c r="S882" s="1"/>
@@ -16344,7 +16346,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" spans="1:26" ht="12.45">
+    <row r="883" spans="1:26" ht="12.5">
       <c r="A883" s="1"/>
       <c r="R883" s="1"/>
       <c r="S883" s="1"/>
@@ -16356,7 +16358,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" spans="1:26" ht="12.45">
+    <row r="884" spans="1:26" ht="12.5">
       <c r="A884" s="1"/>
       <c r="R884" s="1"/>
       <c r="S884" s="1"/>
@@ -16368,7 +16370,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" spans="1:26" ht="12.45">
+    <row r="885" spans="1:26" ht="12.5">
       <c r="A885" s="1"/>
       <c r="R885" s="1"/>
       <c r="S885" s="1"/>
@@ -16380,7 +16382,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" spans="1:26" ht="12.45">
+    <row r="886" spans="1:26" ht="12.5">
       <c r="A886" s="1"/>
       <c r="R886" s="1"/>
       <c r="S886" s="1"/>
@@ -16392,7 +16394,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" spans="1:26" ht="12.45">
+    <row r="887" spans="1:26" ht="12.5">
       <c r="A887" s="1"/>
       <c r="R887" s="1"/>
       <c r="S887" s="1"/>
@@ -16404,7 +16406,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" spans="1:26" ht="12.45">
+    <row r="888" spans="1:26" ht="12.5">
       <c r="A888" s="1"/>
       <c r="R888" s="1"/>
       <c r="S888" s="1"/>
@@ -16416,7 +16418,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" spans="1:26" ht="12.45">
+    <row r="889" spans="1:26" ht="12.5">
       <c r="A889" s="1"/>
       <c r="R889" s="1"/>
       <c r="S889" s="1"/>
@@ -16428,7 +16430,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" spans="1:26" ht="12.45">
+    <row r="890" spans="1:26" ht="12.5">
       <c r="A890" s="1"/>
       <c r="R890" s="1"/>
       <c r="S890" s="1"/>
@@ -16440,7 +16442,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" spans="1:26" ht="12.45">
+    <row r="891" spans="1:26" ht="12.5">
       <c r="A891" s="1"/>
       <c r="R891" s="1"/>
       <c r="S891" s="1"/>
@@ -16452,7 +16454,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" spans="1:26" ht="12.45">
+    <row r="892" spans="1:26" ht="12.5">
       <c r="A892" s="1"/>
       <c r="R892" s="1"/>
       <c r="S892" s="1"/>
@@ -16464,7 +16466,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" spans="1:26" ht="12.45">
+    <row r="893" spans="1:26" ht="12.5">
       <c r="A893" s="1"/>
       <c r="R893" s="1"/>
       <c r="S893" s="1"/>
@@ -16476,7 +16478,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" spans="1:26" ht="12.45">
+    <row r="894" spans="1:26" ht="12.5">
       <c r="A894" s="1"/>
       <c r="R894" s="1"/>
       <c r="S894" s="1"/>
@@ -16488,7 +16490,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" spans="1:26" ht="12.45">
+    <row r="895" spans="1:26" ht="12.5">
       <c r="A895" s="1"/>
       <c r="R895" s="1"/>
       <c r="S895" s="1"/>
@@ -16500,7 +16502,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" spans="1:26" ht="12.45">
+    <row r="896" spans="1:26" ht="12.5">
       <c r="A896" s="1"/>
       <c r="R896" s="1"/>
       <c r="S896" s="1"/>
@@ -16512,7 +16514,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" spans="1:26" ht="12.45">
+    <row r="897" spans="1:26" ht="12.5">
       <c r="A897" s="1"/>
       <c r="R897" s="1"/>
       <c r="S897" s="1"/>
@@ -16524,7 +16526,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" spans="1:26" ht="12.45">
+    <row r="898" spans="1:26" ht="12.5">
       <c r="A898" s="1"/>
       <c r="R898" s="1"/>
       <c r="S898" s="1"/>
@@ -16536,7 +16538,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" spans="1:26" ht="12.45">
+    <row r="899" spans="1:26" ht="12.5">
       <c r="A899" s="1"/>
       <c r="R899" s="1"/>
       <c r="S899" s="1"/>
@@ -16548,7 +16550,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" spans="1:26" ht="12.45">
+    <row r="900" spans="1:26" ht="12.5">
       <c r="A900" s="1"/>
       <c r="R900" s="1"/>
       <c r="S900" s="1"/>
@@ -16560,7 +16562,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" spans="1:26" ht="12.45">
+    <row r="901" spans="1:26" ht="12.5">
       <c r="A901" s="1"/>
       <c r="R901" s="1"/>
       <c r="S901" s="1"/>
@@ -16572,7 +16574,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" spans="1:26" ht="12.45">
+    <row r="902" spans="1:26" ht="12.5">
       <c r="A902" s="1"/>
       <c r="R902" s="1"/>
       <c r="S902" s="1"/>
@@ -16584,7 +16586,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" spans="1:26" ht="12.45">
+    <row r="903" spans="1:26" ht="12.5">
       <c r="A903" s="1"/>
       <c r="R903" s="1"/>
       <c r="S903" s="1"/>
@@ -16596,7 +16598,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" spans="1:26" ht="12.45">
+    <row r="904" spans="1:26" ht="12.5">
       <c r="A904" s="1"/>
       <c r="R904" s="1"/>
       <c r="S904" s="1"/>
@@ -16608,7 +16610,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" spans="1:26" ht="12.45">
+    <row r="905" spans="1:26" ht="12.5">
       <c r="A905" s="1"/>
       <c r="R905" s="1"/>
       <c r="S905" s="1"/>
@@ -16620,7 +16622,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" spans="1:26" ht="12.45">
+    <row r="906" spans="1:26" ht="12.5">
       <c r="A906" s="1"/>
       <c r="R906" s="1"/>
       <c r="S906" s="1"/>
@@ -16632,7 +16634,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" spans="1:26" ht="12.45">
+    <row r="907" spans="1:26" ht="12.5">
       <c r="A907" s="1"/>
       <c r="R907" s="1"/>
       <c r="S907" s="1"/>
@@ -16644,7 +16646,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" spans="1:26" ht="12.45">
+    <row r="908" spans="1:26" ht="12.5">
       <c r="A908" s="1"/>
       <c r="R908" s="1"/>
       <c r="S908" s="1"/>
@@ -16656,7 +16658,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" spans="1:26" ht="12.45">
+    <row r="909" spans="1:26" ht="12.5">
       <c r="A909" s="1"/>
       <c r="R909" s="1"/>
       <c r="S909" s="1"/>
@@ -16668,7 +16670,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" spans="1:26" ht="12.45">
+    <row r="910" spans="1:26" ht="12.5">
       <c r="A910" s="1"/>
       <c r="R910" s="1"/>
       <c r="S910" s="1"/>
@@ -16680,7 +16682,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" spans="1:26" ht="12.45">
+    <row r="911" spans="1:26" ht="12.5">
       <c r="A911" s="1"/>
       <c r="R911" s="1"/>
       <c r="S911" s="1"/>
@@ -16692,7 +16694,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" spans="1:26" ht="12.45">
+    <row r="912" spans="1:26" ht="12.5">
       <c r="A912" s="1"/>
       <c r="R912" s="1"/>
       <c r="S912" s="1"/>
@@ -16704,7 +16706,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" spans="1:26" ht="12.45">
+    <row r="913" spans="1:26" ht="12.5">
       <c r="A913" s="1"/>
       <c r="R913" s="1"/>
       <c r="S913" s="1"/>
@@ -16716,7 +16718,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" spans="1:26" ht="12.45">
+    <row r="914" spans="1:26" ht="12.5">
       <c r="A914" s="1"/>
       <c r="R914" s="1"/>
       <c r="S914" s="1"/>
@@ -16728,7 +16730,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" spans="1:26" ht="12.45">
+    <row r="915" spans="1:26" ht="12.5">
       <c r="A915" s="1"/>
       <c r="R915" s="1"/>
       <c r="S915" s="1"/>
@@ -16740,7 +16742,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" spans="1:26" ht="12.45">
+    <row r="916" spans="1:26" ht="12.5">
       <c r="A916" s="1"/>
       <c r="R916" s="1"/>
       <c r="S916" s="1"/>
@@ -16752,7 +16754,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" spans="1:26" ht="12.45">
+    <row r="917" spans="1:26" ht="12.5">
       <c r="A917" s="1"/>
       <c r="R917" s="1"/>
       <c r="S917" s="1"/>
@@ -16764,7 +16766,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" spans="1:26" ht="12.45">
+    <row r="918" spans="1:26" ht="12.5">
       <c r="A918" s="1"/>
       <c r="R918" s="1"/>
       <c r="S918" s="1"/>
@@ -16776,7 +16778,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" spans="1:26" ht="12.45">
+    <row r="919" spans="1:26" ht="12.5">
       <c r="A919" s="1"/>
       <c r="R919" s="1"/>
       <c r="S919" s="1"/>
@@ -16788,7 +16790,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" spans="1:26" ht="12.45">
+    <row r="920" spans="1:26" ht="12.5">
       <c r="A920" s="1"/>
       <c r="R920" s="1"/>
       <c r="S920" s="1"/>
@@ -16800,7 +16802,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" spans="1:26" ht="12.45">
+    <row r="921" spans="1:26" ht="12.5">
       <c r="A921" s="1"/>
       <c r="R921" s="1"/>
       <c r="S921" s="1"/>
@@ -16812,7 +16814,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" spans="1:26" ht="12.45">
+    <row r="922" spans="1:26" ht="12.5">
       <c r="A922" s="1"/>
       <c r="R922" s="1"/>
       <c r="S922" s="1"/>
@@ -16824,7 +16826,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" spans="1:26" ht="12.45">
+    <row r="923" spans="1:26" ht="12.5">
       <c r="A923" s="1"/>
       <c r="R923" s="1"/>
       <c r="S923" s="1"/>
@@ -16836,7 +16838,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" spans="1:26" ht="12.45">
+    <row r="924" spans="1:26" ht="12.5">
       <c r="A924" s="1"/>
       <c r="R924" s="1"/>
       <c r="S924" s="1"/>
@@ -16848,7 +16850,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" spans="1:26" ht="12.45">
+    <row r="925" spans="1:26" ht="12.5">
       <c r="A925" s="1"/>
       <c r="R925" s="1"/>
       <c r="S925" s="1"/>
@@ -16860,7 +16862,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" spans="1:26" ht="12.45">
+    <row r="926" spans="1:26" ht="12.5">
       <c r="A926" s="1"/>
       <c r="R926" s="1"/>
       <c r="S926" s="1"/>
@@ -16872,7 +16874,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" spans="1:26" ht="12.45">
+    <row r="927" spans="1:26" ht="12.5">
       <c r="A927" s="1"/>
       <c r="R927" s="1"/>
       <c r="S927" s="1"/>
@@ -16884,7 +16886,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" spans="1:26" ht="12.45">
+    <row r="928" spans="1:26" ht="12.5">
       <c r="A928" s="1"/>
       <c r="R928" s="1"/>
       <c r="S928" s="1"/>
@@ -16896,7 +16898,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" spans="1:26" ht="12.45">
+    <row r="929" spans="1:26" ht="12.5">
       <c r="A929" s="1"/>
       <c r="R929" s="1"/>
       <c r="S929" s="1"/>
@@ -16908,7 +16910,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" spans="1:26" ht="12.45">
+    <row r="930" spans="1:26" ht="12.5">
       <c r="A930" s="1"/>
       <c r="R930" s="1"/>
       <c r="S930" s="1"/>
@@ -16920,7 +16922,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" spans="1:26" ht="12.45">
+    <row r="931" spans="1:26" ht="12.5">
       <c r="A931" s="1"/>
       <c r="R931" s="1"/>
       <c r="S931" s="1"/>
@@ -16932,7 +16934,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" spans="1:26" ht="12.45">
+    <row r="932" spans="1:26" ht="12.5">
       <c r="A932" s="1"/>
       <c r="R932" s="1"/>
       <c r="S932" s="1"/>
@@ -16944,7 +16946,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" spans="1:26" ht="12.45">
+    <row r="933" spans="1:26" ht="12.5">
       <c r="A933" s="1"/>
       <c r="R933" s="1"/>
       <c r="S933" s="1"/>
@@ -16956,7 +16958,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" spans="1:26" ht="12.45">
+    <row r="934" spans="1:26" ht="12.5">
       <c r="A934" s="1"/>
       <c r="R934" s="1"/>
       <c r="S934" s="1"/>
@@ -16968,7 +16970,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" spans="1:26" ht="12.45">
+    <row r="935" spans="1:26" ht="12.5">
       <c r="A935" s="1"/>
       <c r="R935" s="1"/>
       <c r="S935" s="1"/>
@@ -16980,7 +16982,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" spans="1:26" ht="12.45">
+    <row r="936" spans="1:26" ht="12.5">
       <c r="A936" s="1"/>
       <c r="R936" s="1"/>
       <c r="S936" s="1"/>
@@ -16992,7 +16994,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" spans="1:26" ht="12.45">
+    <row r="937" spans="1:26" ht="12.5">
       <c r="A937" s="1"/>
       <c r="R937" s="1"/>
       <c r="S937" s="1"/>
@@ -17004,7 +17006,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" spans="1:26" ht="12.45">
+    <row r="938" spans="1:26" ht="12.5">
       <c r="A938" s="1"/>
       <c r="R938" s="1"/>
       <c r="S938" s="1"/>
@@ -17016,7 +17018,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" spans="1:26" ht="12.45">
+    <row r="939" spans="1:26" ht="12.5">
       <c r="A939" s="1"/>
       <c r="R939" s="1"/>
       <c r="S939" s="1"/>
@@ -17028,7 +17030,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" spans="1:26" ht="12.45">
+    <row r="940" spans="1:26" ht="12.5">
       <c r="A940" s="1"/>
       <c r="R940" s="1"/>
       <c r="S940" s="1"/>
@@ -17040,7 +17042,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" spans="1:26" ht="12.45">
+    <row r="941" spans="1:26" ht="12.5">
       <c r="A941" s="1"/>
       <c r="R941" s="1"/>
       <c r="S941" s="1"/>
@@ -17052,7 +17054,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" spans="1:26" ht="12.45">
+    <row r="942" spans="1:26" ht="12.5">
       <c r="A942" s="1"/>
       <c r="R942" s="1"/>
       <c r="S942" s="1"/>
@@ -17064,7 +17066,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" spans="1:26" ht="12.45">
+    <row r="943" spans="1:26" ht="12.5">
       <c r="A943" s="1"/>
       <c r="R943" s="1"/>
       <c r="S943" s="1"/>
@@ -17076,7 +17078,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" spans="1:26" ht="12.45">
+    <row r="944" spans="1:26" ht="12.5">
       <c r="A944" s="1"/>
       <c r="R944" s="1"/>
       <c r="S944" s="1"/>
@@ -17088,7 +17090,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" spans="1:26" ht="12.45">
+    <row r="945" spans="1:26" ht="12.5">
       <c r="A945" s="1"/>
       <c r="R945" s="1"/>
       <c r="S945" s="1"/>
@@ -17100,7 +17102,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" spans="1:26" ht="12.45">
+    <row r="946" spans="1:26" ht="12.5">
       <c r="A946" s="1"/>
       <c r="R946" s="1"/>
       <c r="S946" s="1"/>
@@ -17112,7 +17114,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" spans="1:26" ht="12.45">
+    <row r="947" spans="1:26" ht="12.5">
       <c r="A947" s="1"/>
       <c r="R947" s="1"/>
       <c r="S947" s="1"/>
@@ -17124,7 +17126,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" spans="1:26" ht="12.45">
+    <row r="948" spans="1:26" ht="12.5">
       <c r="A948" s="1"/>
       <c r="R948" s="1"/>
       <c r="S948" s="1"/>
@@ -17136,7 +17138,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" spans="1:26" ht="12.45">
+    <row r="949" spans="1:26" ht="12.5">
       <c r="A949" s="1"/>
       <c r="R949" s="1"/>
       <c r="S949" s="1"/>
@@ -17148,7 +17150,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" spans="1:26" ht="12.45">
+    <row r="950" spans="1:26" ht="12.5">
       <c r="A950" s="1"/>
       <c r="R950" s="1"/>
       <c r="S950" s="1"/>
@@ -17160,7 +17162,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" spans="1:26" ht="12.45">
+    <row r="951" spans="1:26" ht="12.5">
       <c r="A951" s="1"/>
       <c r="R951" s="1"/>
       <c r="S951" s="1"/>
@@ -17172,7 +17174,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" spans="1:26" ht="12.45">
+    <row r="952" spans="1:26" ht="12.5">
       <c r="A952" s="1"/>
       <c r="R952" s="1"/>
       <c r="S952" s="1"/>
@@ -17184,7 +17186,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" spans="1:26" ht="12.45">
+    <row r="953" spans="1:26" ht="12.5">
       <c r="A953" s="1"/>
       <c r="R953" s="1"/>
       <c r="S953" s="1"/>
@@ -17196,7 +17198,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" spans="1:26" ht="12.45">
+    <row r="954" spans="1:26" ht="12.5">
       <c r="A954" s="1"/>
       <c r="R954" s="1"/>
       <c r="S954" s="1"/>
@@ -17208,7 +17210,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" spans="1:26" ht="12.45">
+    <row r="955" spans="1:26" ht="12.5">
       <c r="A955" s="1"/>
       <c r="R955" s="1"/>
       <c r="S955" s="1"/>
@@ -17220,7 +17222,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" spans="1:26" ht="12.45">
+    <row r="956" spans="1:26" ht="12.5">
       <c r="A956" s="1"/>
       <c r="R956" s="1"/>
       <c r="S956" s="1"/>
@@ -17232,7 +17234,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" spans="1:26" ht="12.45">
+    <row r="957" spans="1:26" ht="12.5">
       <c r="A957" s="1"/>
       <c r="R957" s="1"/>
       <c r="S957" s="1"/>
@@ -17244,7 +17246,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" spans="1:26" ht="12.45">
+    <row r="958" spans="1:26" ht="12.5">
       <c r="A958" s="1"/>
       <c r="R958" s="1"/>
       <c r="S958" s="1"/>
@@ -17256,7 +17258,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" spans="1:26" ht="12.45">
+    <row r="959" spans="1:26" ht="12.5">
       <c r="A959" s="1"/>
       <c r="R959" s="1"/>
       <c r="S959" s="1"/>
@@ -17268,7 +17270,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" spans="1:26" ht="12.45">
+    <row r="960" spans="1:26" ht="12.5">
       <c r="A960" s="1"/>
       <c r="R960" s="1"/>
       <c r="S960" s="1"/>
@@ -17280,7 +17282,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" spans="1:26" ht="12.45">
+    <row r="961" spans="1:26" ht="12.5">
       <c r="A961" s="1"/>
       <c r="R961" s="1"/>
       <c r="S961" s="1"/>
@@ -17292,7 +17294,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" spans="1:26" ht="12.45">
+    <row r="962" spans="1:26" ht="12.5">
       <c r="A962" s="1"/>
       <c r="R962" s="1"/>
       <c r="S962" s="1"/>
@@ -17304,7 +17306,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" spans="1:26" ht="12.45">
+    <row r="963" spans="1:26" ht="12.5">
       <c r="A963" s="1"/>
       <c r="R963" s="1"/>
       <c r="S963" s="1"/>
@@ -17316,7 +17318,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" spans="1:26" ht="12.45">
+    <row r="964" spans="1:26" ht="12.5">
       <c r="A964" s="1"/>
       <c r="R964" s="1"/>
       <c r="S964" s="1"/>
@@ -17328,7 +17330,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" spans="1:26" ht="12.45">
+    <row r="965" spans="1:26" ht="12.5">
       <c r="A965" s="1"/>
       <c r="R965" s="1"/>
       <c r="S965" s="1"/>
@@ -17340,7 +17342,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" spans="1:26" ht="12.45">
+    <row r="966" spans="1:26" ht="12.5">
       <c r="A966" s="1"/>
       <c r="R966" s="1"/>
       <c r="S966" s="1"/>
@@ -17352,7 +17354,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" spans="1:26" ht="12.45">
+    <row r="967" spans="1:26" ht="12.5">
       <c r="A967" s="1"/>
       <c r="R967" s="1"/>
       <c r="S967" s="1"/>
@@ -17364,7 +17366,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" spans="1:26" ht="12.45">
+    <row r="968" spans="1:26" ht="12.5">
       <c r="A968" s="1"/>
       <c r="R968" s="1"/>
       <c r="S968" s="1"/>
@@ -17376,7 +17378,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" spans="1:26" ht="12.45">
+    <row r="969" spans="1:26" ht="12.5">
       <c r="A969" s="1"/>
       <c r="R969" s="1"/>
       <c r="S969" s="1"/>
@@ -17388,7 +17390,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" spans="1:26" ht="12.45">
+    <row r="970" spans="1:26" ht="12.5">
       <c r="A970" s="1"/>
       <c r="R970" s="1"/>
       <c r="S970" s="1"/>
@@ -17400,7 +17402,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" spans="1:26" ht="12.45">
+    <row r="971" spans="1:26" ht="12.5">
       <c r="A971" s="1"/>
       <c r="R971" s="1"/>
       <c r="S971" s="1"/>
@@ -17412,7 +17414,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" spans="1:26" ht="12.45">
+    <row r="972" spans="1:26" ht="12.5">
       <c r="A972" s="1"/>
       <c r="R972" s="1"/>
       <c r="S972" s="1"/>
@@ -17424,7 +17426,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" spans="1:26" ht="12.45">
+    <row r="973" spans="1:26" ht="12.5">
       <c r="A973" s="1"/>
       <c r="R973" s="1"/>
       <c r="S973" s="1"/>
@@ -17436,7 +17438,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" spans="1:26" ht="12.45">
+    <row r="974" spans="1:26" ht="12.5">
       <c r="A974" s="1"/>
       <c r="R974" s="1"/>
       <c r="S974" s="1"/>
@@ -17448,7 +17450,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" spans="1:26" ht="12.45">
+    <row r="975" spans="1:26" ht="12.5">
       <c r="A975" s="1"/>
       <c r="R975" s="1"/>
       <c r="S975" s="1"/>
@@ -17460,7 +17462,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" spans="1:26" ht="12.45">
+    <row r="976" spans="1:26" ht="12.5">
       <c r="A976" s="1"/>
       <c r="R976" s="1"/>
       <c r="S976" s="1"/>
@@ -17472,7 +17474,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" spans="1:26" ht="12.45">
+    <row r="977" spans="1:26" ht="12.5">
       <c r="A977" s="1"/>
       <c r="R977" s="1"/>
       <c r="S977" s="1"/>
@@ -17484,7 +17486,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" spans="1:26" ht="12.45">
+    <row r="978" spans="1:26" ht="12.5">
       <c r="A978" s="1"/>
       <c r="R978" s="1"/>
       <c r="S978" s="1"/>
@@ -17496,7 +17498,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" spans="1:26" ht="12.45">
+    <row r="979" spans="1:26" ht="12.5">
       <c r="A979" s="1"/>
       <c r="R979" s="1"/>
       <c r="S979" s="1"/>
@@ -17508,7 +17510,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980" spans="1:26" ht="12.45">
+    <row r="980" spans="1:26" ht="12.5">
       <c r="A980" s="1"/>
       <c r="R980" s="1"/>
       <c r="S980" s="1"/>
@@ -17520,7 +17522,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981" spans="1:26" ht="12.45">
+    <row r="981" spans="1:26" ht="12.5">
       <c r="A981" s="1"/>
       <c r="R981" s="1"/>
       <c r="S981" s="1"/>
@@ -17532,7 +17534,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982" spans="1:26" ht="12.45">
+    <row r="982" spans="1:26" ht="12.5">
       <c r="A982" s="1"/>
       <c r="R982" s="1"/>
       <c r="S982" s="1"/>
@@ -17544,7 +17546,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" spans="1:26" ht="12.45">
+    <row r="983" spans="1:26" ht="12.5">
       <c r="A983" s="1"/>
       <c r="R983" s="1"/>
       <c r="S983" s="1"/>
@@ -17556,7 +17558,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" spans="1:26" ht="12.45">
+    <row r="984" spans="1:26" ht="12.5">
       <c r="A984" s="1"/>
       <c r="R984" s="1"/>
       <c r="S984" s="1"/>
@@ -17568,7 +17570,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" spans="1:26" ht="12.45">
+    <row r="985" spans="1:26" ht="12.5">
       <c r="A985" s="1"/>
       <c r="R985" s="1"/>
       <c r="S985" s="1"/>
@@ -17580,7 +17582,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" spans="1:26" ht="12.45">
+    <row r="986" spans="1:26" ht="12.5">
       <c r="A986" s="1"/>
       <c r="R986" s="1"/>
       <c r="S986" s="1"/>
@@ -17592,7 +17594,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" spans="1:26" ht="12.45">
+    <row r="987" spans="1:26" ht="12.5">
       <c r="A987" s="1"/>
       <c r="R987" s="1"/>
       <c r="S987" s="1"/>
@@ -17604,7 +17606,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988" spans="1:26" ht="12.45">
+    <row r="988" spans="1:26" ht="12.5">
       <c r="A988" s="1"/>
       <c r="R988" s="1"/>
       <c r="S988" s="1"/>
@@ -17616,7 +17618,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989" spans="1:26" ht="12.45">
+    <row r="989" spans="1:26" ht="12.5">
       <c r="A989" s="1"/>
       <c r="R989" s="1"/>
       <c r="S989" s="1"/>
@@ -17628,7 +17630,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" spans="1:26" ht="12.45">
+    <row r="990" spans="1:26" ht="12.5">
       <c r="A990" s="1"/>
       <c r="R990" s="1"/>
       <c r="S990" s="1"/>
@@ -17640,7 +17642,7 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
-    <row r="991" spans="1:26" ht="12.45">
+    <row r="991" spans="1:26" ht="12.5">
       <c r="A991" s="1"/>
       <c r="R991" s="1"/>
       <c r="S991" s="1"/>
@@ -17652,7 +17654,7 @@
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
     </row>
-    <row r="992" spans="1:26" ht="12.45">
+    <row r="992" spans="1:26" ht="12.5">
       <c r="A992" s="1"/>
       <c r="R992" s="1"/>
       <c r="S992" s="1"/>
@@ -17664,7 +17666,7 @@
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
     </row>
-    <row r="993" spans="1:26" ht="12.45">
+    <row r="993" spans="1:26" ht="12.5">
       <c r="A993" s="1"/>
       <c r="R993" s="1"/>
       <c r="S993" s="1"/>
@@ -17676,7 +17678,7 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994" spans="1:26" ht="12.45">
+    <row r="994" spans="1:26" ht="12.5">
       <c r="A994" s="1"/>
       <c r="R994" s="1"/>
       <c r="S994" s="1"/>
@@ -17688,7 +17690,7 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
-    <row r="995" spans="1:26" ht="12.45">
+    <row r="995" spans="1:26" ht="12.5">
       <c r="A995" s="1"/>
       <c r="R995" s="1"/>
       <c r="S995" s="1"/>
@@ -17700,7 +17702,7 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996" spans="1:26" ht="12.45">
+    <row r="996" spans="1:26" ht="12.5">
       <c r="A996" s="1"/>
       <c r="R996" s="1"/>
       <c r="S996" s="1"/>
@@ -17712,7 +17714,7 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997" spans="1:26" ht="12.45">
+    <row r="997" spans="1:26" ht="12.5">
       <c r="A997" s="1"/>
       <c r="R997" s="1"/>
       <c r="S997" s="1"/>
@@ -17724,7 +17726,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" spans="1:26" ht="12.45">
+    <row r="998" spans="1:26" ht="12.5">
       <c r="A998" s="1"/>
       <c r="R998" s="1"/>
       <c r="S998" s="1"/>
@@ -17736,7 +17738,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" spans="1:26" ht="12.45">
+    <row r="999" spans="1:26" ht="12.5">
       <c r="A999" s="1"/>
       <c r="R999" s="1"/>
       <c r="S999" s="1"/>
